--- a/quizz/Quizz.xlsx
+++ b/quizz/Quizz.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Desktop\Quizz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Desktop\quizz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B870A3-CBBC-44E0-8D6F-FB07CE46D0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4213E6F6-7B0F-4B8D-96B9-DD2F235A7E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7129196E-3C29-42F6-8149-3968117AC519}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7129196E-3C29-42F6-8149-3968117AC519}"/>
   </bookViews>
   <sheets>
     <sheet name="5ième Elément" sheetId="1" r:id="rId1"/>
+    <sheet name="Astérix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
   <si>
     <t>Train électrique</t>
   </si>
@@ -334,6 +335,210 @@
   </si>
   <si>
     <t>Ruby Rhod</t>
+  </si>
+  <si>
+    <t>Astérix</t>
+  </si>
+  <si>
+    <t>Obélix</t>
+  </si>
+  <si>
+    <t>Panoramix</t>
+  </si>
+  <si>
+    <t>Abraracourcix</t>
+  </si>
+  <si>
+    <t>Assurancetourix</t>
+  </si>
+  <si>
+    <t>Bonemine</t>
+  </si>
+  <si>
+    <t>Quel est ton plat préféré ?</t>
+  </si>
+  <si>
+    <t>Soupe au pistou</t>
+  </si>
+  <si>
+    <t>Burger au sanglier</t>
+  </si>
+  <si>
+    <t>Quel cadeau aimerais-tu le plus pour ton anniversaire ?</t>
+  </si>
+  <si>
+    <t>Toasts de saumon fumé</t>
+  </si>
+  <si>
+    <t>Rouleau à pâtisserie</t>
+  </si>
+  <si>
+    <t>Glaive</t>
+  </si>
+  <si>
+    <t>Bouclier</t>
+  </si>
+  <si>
+    <t>Une marmite</t>
+  </si>
+  <si>
+    <t>Un CD de Mireille Matthieu</t>
+  </si>
+  <si>
+    <t>Quel endroit aimerais-tu visiter ?</t>
+  </si>
+  <si>
+    <t>L'Opéra de Milan</t>
+  </si>
+  <si>
+    <t>Stonehenge</t>
+  </si>
+  <si>
+    <t>Je suis très bien là où je suis</t>
+  </si>
+  <si>
+    <t>Les Quais de Lutèce</t>
+  </si>
+  <si>
+    <t>Un camp romain</t>
+  </si>
+  <si>
+    <t>La forêt, on y trouve toujours des choses intéressantes</t>
+  </si>
+  <si>
+    <t>Quelle est ton émission de télé préférée ?</t>
+  </si>
+  <si>
+    <t>Les Jeux Olympiques</t>
+  </si>
+  <si>
+    <t>Top Chef</t>
+  </si>
+  <si>
+    <t>The Voice</t>
+  </si>
+  <si>
+    <t>Fort Boyard</t>
+  </si>
+  <si>
+    <t>Les Rois de la réno</t>
+  </si>
+  <si>
+    <t>Champignons</t>
+  </si>
+  <si>
+    <t>Fleurs</t>
+  </si>
+  <si>
+    <t>Gui</t>
+  </si>
+  <si>
+    <t>Marronnier</t>
+  </si>
+  <si>
+    <t>Quel est ton végétal préféré ?</t>
+  </si>
+  <si>
+    <t>Tilleul</t>
+  </si>
+  <si>
+    <t>Idéfix</t>
+  </si>
+  <si>
+    <t>Une BD de Boule et Bill</t>
+  </si>
+  <si>
+    <t>Une saison au zoo</t>
+  </si>
+  <si>
+    <t>Les arbres, tous les arbres</t>
+  </si>
+  <si>
+    <t>A la plage, tu préfères :</t>
+  </si>
+  <si>
+    <t>Jouer dans le sable</t>
+  </si>
+  <si>
+    <t>Bronzer</t>
+  </si>
+  <si>
+    <t>Lire</t>
+  </si>
+  <si>
+    <t>Te baigner</t>
+  </si>
+  <si>
+    <t>Jouer au ballon</t>
+  </si>
+  <si>
+    <t>Le Seigneur des Anneaux</t>
+  </si>
+  <si>
+    <t>Nausicaä de la Vallée du Vent</t>
+  </si>
+  <si>
+    <t>Mary Poppins</t>
+  </si>
+  <si>
+    <t>Charlie et la chocolaterie</t>
+  </si>
+  <si>
+    <t>Cyrano de Bergerac</t>
+  </si>
+  <si>
+    <t>Octobre rouge</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Quelle œuvre d'art préfères-tu ?</t>
+  </si>
+  <si>
+    <t>La Joconde</t>
+  </si>
+  <si>
+    <t>Un tableau de Napoléon sur son cheval</t>
+  </si>
+  <si>
+    <t>La Victoire de Samothrace</t>
+  </si>
+  <si>
+    <t>Le Radeau de La Méduse</t>
+  </si>
+  <si>
+    <t>La Vénus de Milo</t>
+  </si>
+  <si>
+    <t>La Nuit étoilée</t>
+  </si>
+  <si>
+    <t>Quand tu t'ennuies, tu préfères :</t>
+  </si>
+  <si>
+    <t>Chanter</t>
+  </si>
+  <si>
+    <t>Cuisiner</t>
+  </si>
+  <si>
+    <t>Manger</t>
+  </si>
+  <si>
+    <t>Faire la sieste</t>
+  </si>
+  <si>
+    <t>Chasser</t>
+  </si>
+  <si>
+    <t>Te promener</t>
+  </si>
+  <si>
+    <t>Pratiquer des loisirs créatifs</t>
+  </si>
+  <si>
+    <t>T'entraîner</t>
   </si>
 </sst>
 </file>
@@ -702,9 +907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C37675-7FE2-4D68-98FA-A37535128B04}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +976,7 @@
         <v>3</v>
       </c>
       <c r="R3" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E3 &amp; "' data-Leeloo='" &amp; F3 &amp; "' data-Zorg='" &amp; G3 &amp; "' data-Ruby='" &amp; H3 &amp; "' data-Plava='" &amp; I3 &amp; "' data-Cornelius='" &amp; J3 &amp; "' data-David='" &amp; K3 &amp; "' data-Pres='" &amp; L3 &amp; "' data-Mondosh='" &amp; M3 &amp; "' data-Manga='" &amp; N3 &amp; "' Data-Evil='" &amp; O3 &amp; "'&gt;" &amp; B3 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R3:R12" si="0">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E3 &amp; "' data-Leeloo='" &amp; F3 &amp; "' data-Zorg='" &amp; G3 &amp; "' data-Ruby='" &amp; H3 &amp; "' data-Plava='" &amp; I3 &amp; "' data-Cornelius='" &amp; J3 &amp; "' data-David='" &amp; K3 &amp; "' data-Pres='" &amp; L3 &amp; "' data-Mondosh='" &amp; M3 &amp; "' data-Manga='" &amp; N3 &amp; "' Data-Evil='" &amp; O3 &amp; "'&gt;" &amp; B3 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='3' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='3' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Train électrique&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -789,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="R4" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E4 &amp; "' data-Leeloo='" &amp; F4 &amp; "' data-Zorg='" &amp; G4 &amp; "' data-Ruby='" &amp; H4 &amp; "' data-Plava='" &amp; I4 &amp; "' data-Cornelius='" &amp; J4 &amp; "' data-David='" &amp; K4 &amp; "' data-Pres='" &amp; L4 &amp; "' data-Mondosh='" &amp; M4 &amp; "' data-Manga='" &amp; N4 &amp; "' Data-Evil='" &amp; O4 &amp; "'&gt;" &amp; B4 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='5' data-Plava='' data-Cornelius='' data-David='3' data-Pres='2' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Déguisements&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -816,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="R5" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E5 &amp; "' data-Leeloo='" &amp; F5 &amp; "' data-Zorg='" &amp; G5 &amp; "' data-Ruby='" &amp; H5 &amp; "' data-Plava='" &amp; I5 &amp; "' data-Cornelius='" &amp; J5 &amp; "' data-David='" &amp; K5 &amp; "' data-Pres='" &amp; L5 &amp; "' data-Mondosh='" &amp; M5 &amp; "' data-Manga='" &amp; N5 &amp; "' Data-Evil='" &amp; O5 &amp; "'&gt;" &amp; B5 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='1' data-Leeloo='2' data-Zorg='' data-Ruby='2' data-Plava='2' data-Cornelius='' data-David='2' data-Pres='' data-Mondosh='5' data-Manga='' Data-Evil=''&gt;Peluche&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -828,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="R6" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E6 &amp; "' data-Leeloo='" &amp; F6 &amp; "' data-Zorg='" &amp; G6 &amp; "' data-Ruby='" &amp; H6 &amp; "' data-Plava='" &amp; I6 &amp; "' data-Cornelius='" &amp; J6 &amp; "' data-David='" &amp; K6 &amp; "' data-Pres='" &amp; L6 &amp; "' data-Mondosh='" &amp; M6 &amp; "' data-Manga='" &amp; N6 &amp; "' Data-Evil='" &amp; O6 &amp; "'&gt;" &amp; B6 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='4' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Figurines&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -843,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="R7" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E7 &amp; "' data-Leeloo='" &amp; F7 &amp; "' data-Zorg='" &amp; G7 &amp; "' data-Ruby='" &amp; H7 &amp; "' data-Plava='" &amp; I7 &amp; "' data-Cornelius='" &amp; J7 &amp; "' data-David='" &amp; K7 &amp; "' data-Pres='" &amp; L7 &amp; "' data-Mondosh='" &amp; M7 &amp; "' data-Manga='" &amp; N7 &amp; "' Data-Evil='" &amp; O7 &amp; "'&gt;" &amp; B7 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='5' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='3' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Petites voitures&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -855,7 +1060,7 @@
         <v>5</v>
       </c>
       <c r="R8" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E8 &amp; "' data-Leeloo='" &amp; F8 &amp; "' data-Zorg='" &amp; G8 &amp; "' data-Ruby='" &amp; H8 &amp; "' data-Plava='" &amp; I8 &amp; "' data-Cornelius='" &amp; J8 &amp; "' data-David='" &amp; K8 &amp; "' data-Pres='" &amp; L8 &amp; "' data-Mondosh='" &amp; M8 &amp; "' data-Manga='" &amp; N8 &amp; "' Data-Evil='" &amp; O8 &amp; "'&gt;" &amp; B8 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='5' Data-Evil=''&gt;Poupée (vaudoo bien sûr)&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -876,7 +1081,7 @@
         <v>5</v>
       </c>
       <c r="R9" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E9 &amp; "' data-Leeloo='" &amp; F9 &amp; "' data-Zorg='" &amp; G9 &amp; "' data-Ruby='" &amp; H9 &amp; "' data-Plava='" &amp; I9 &amp; "' data-Cornelius='" &amp; J9 &amp; "' data-David='" &amp; K9 &amp; "' data-Pres='" &amp; L9 &amp; "' data-Mondosh='" &amp; M9 &amp; "' data-Manga='" &amp; N9 &amp; "' Data-Evil='" &amp; O9 &amp; "'&gt;" &amp; B9 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='3' data-Leeloo='3' data-Zorg='4' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='5' Data-Evil=''&gt;Pistolet à eau&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -891,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="R10" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E10 &amp; "' data-Leeloo='" &amp; F10 &amp; "' data-Zorg='" &amp; G10 &amp; "' data-Ruby='" &amp; H10 &amp; "' data-Plava='" &amp; I10 &amp; "' data-Cornelius='" &amp; J10 &amp; "' data-David='" &amp; K10 &amp; "' data-Pres='" &amp; L10 &amp; "' data-Mondosh='" &amp; M10 &amp; "' data-Manga='" &amp; N10 &amp; "' Data-Evil='" &amp; O10 &amp; "'&gt;" &amp; B10 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='5' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='2' data-Mondosh='' data-Manga='' Data-Evil=''&gt;La bonne paye&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -921,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="R11" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E11 &amp; "' data-Leeloo='" &amp; F11 &amp; "' data-Zorg='" &amp; G11 &amp; "' data-Ruby='" &amp; H11 &amp; "' data-Plava='" &amp; I11 &amp; "' data-Cornelius='" &amp; J11 &amp; "' data-David='" &amp; K11 &amp; "' data-Pres='" &amp; L11 &amp; "' data-Mondosh='" &amp; M11 &amp; "' data-Manga='" &amp; N11 &amp; "' Data-Evil='" &amp; O11 &amp; "'&gt;" &amp; B11 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='3' data-Leeloo='3' data-Zorg='' data-Ruby='3' data-Plava='5' data-Cornelius='4' data-David='4' data-Pres='' data-Mondosh='3' data-Manga='' Data-Evil=''&gt;Boîte à musique&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -936,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="R12" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E12 &amp; "' data-Leeloo='" &amp; F12 &amp; "' data-Zorg='" &amp; G12 &amp; "' data-Ruby='" &amp; H12 &amp; "' data-Plava='" &amp; I12 &amp; "' data-Cornelius='" &amp; J12 &amp; "' data-David='" &amp; K12 &amp; "' data-Pres='" &amp; L12 &amp; "' data-Mondosh='" &amp; M12 &amp; "' data-Manga='" &amp; N12 &amp; "' Data-Evil='" &amp; O12 &amp; "'&gt;" &amp; B12 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="0"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='3' Data-Evil='5'&gt;J'aime pas les jouets&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -966,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="R14" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E14 &amp; "' data-Leeloo='" &amp; F14 &amp; "' data-Zorg='" &amp; G14 &amp; "' data-Ruby='" &amp; H14 &amp; "' data-Plava='" &amp; I14 &amp; "' data-Cornelius='" &amp; J14 &amp; "' data-David='" &amp; K14 &amp; "' data-Pres='" &amp; L14 &amp; "' data-Mondosh='" &amp; M14 &amp; "' data-Manga='" &amp; N14 &amp; "' Data-Evil='" &amp; O14 &amp; "'&gt;" &amp; B14 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R14:R21" si="1">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E14 &amp; "' data-Leeloo='" &amp; F14 &amp; "' data-Zorg='" &amp; G14 &amp; "' data-Ruby='" &amp; H14 &amp; "' data-Plava='" &amp; I14 &amp; "' data-Cornelius='" &amp; J14 &amp; "' data-David='" &amp; K14 &amp; "' data-Pres='" &amp; L14 &amp; "' data-Mondosh='" &amp; M14 &amp; "' data-Manga='" &amp; N14 &amp; "' Data-Evil='" &amp; O14 &amp; "'&gt;" &amp; B14 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='3' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='3' data-Mondosh='' data-Manga='5' Data-Evil='5'&gt;Dr. Folamour&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -981,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="R15" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E15 &amp; "' data-Leeloo='" &amp; F15 &amp; "' data-Zorg='" &amp; G15 &amp; "' data-Ruby='" &amp; H15 &amp; "' data-Plava='" &amp; I15 &amp; "' data-Cornelius='" &amp; J15 &amp; "' data-David='" &amp; K15 &amp; "' data-Pres='" &amp; L15 &amp; "' data-Mondosh='" &amp; M15 &amp; "' data-Manga='" &amp; N15 &amp; "' Data-Evil='" &amp; O15 &amp; "'&gt;" &amp; B15 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='5' data-David='5' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Le nom de la rose&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1002,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="R16" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E16 &amp; "' data-Leeloo='" &amp; F16 &amp; "' data-Zorg='" &amp; G16 &amp; "' data-Ruby='" &amp; H16 &amp; "' data-Plava='" &amp; I16 &amp; "' data-Cornelius='" &amp; J16 &amp; "' data-David='" &amp; K16 &amp; "' data-Pres='" &amp; L16 &amp; "' data-Mondosh='" &amp; M16 &amp; "' data-Manga='" &amp; N16 &amp; "' Data-Evil='" &amp; O16 &amp; "'&gt;" &amp; B16 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='3' data-Zorg='' data-Ruby='3' data-Plava='4' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='3' data-Manga='' Data-Evil=''&gt;Les parapluies de Cherbourg&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1035,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="R17" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E17 &amp; "' data-Leeloo='" &amp; F17 &amp; "' data-Zorg='" &amp; G17 &amp; "' data-Ruby='" &amp; H17 &amp; "' data-Plava='" &amp; I17 &amp; "' data-Cornelius='" &amp; J17 &amp; "' data-David='" &amp; K17 &amp; "' data-Pres='" &amp; L17 &amp; "' data-Mondosh='" &amp; M17 &amp; "' data-Manga='" &amp; N17 &amp; "' Data-Evil='" &amp; O17 &amp; "'&gt;" &amp; B17 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='2' data-Leeloo='4' data-Zorg='' data-Ruby='2' data-Plava='2' data-Cornelius='2' data-David='2' data-Pres='3' data-Mondosh='3' data-Manga='' Data-Evil=''&gt;Star Wars épisode II&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1056,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="R18" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E18 &amp; "' data-Leeloo='" &amp; F18 &amp; "' data-Zorg='" &amp; G18 &amp; "' data-Ruby='" &amp; H18 &amp; "' data-Plava='" &amp; I18 &amp; "' data-Cornelius='" &amp; J18 &amp; "' data-David='" &amp; K18 &amp; "' data-Pres='" &amp; L18 &amp; "' data-Mondosh='" &amp; M18 &amp; "' data-Manga='" &amp; N18 &amp; "' Data-Evil='" &amp; O18 &amp; "'&gt;" &amp; B18 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='3' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='3' data-Mondosh='' data-Manga='4' Data-Evil='3'&gt;Star Wars épisode III&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1071,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="R19" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E19 &amp; "' data-Leeloo='" &amp; F19 &amp; "' data-Zorg='" &amp; G19 &amp; "' data-Ruby='" &amp; H19 &amp; "' data-Plava='" &amp; I19 &amp; "' data-Cornelius='" &amp; J19 &amp; "' data-David='" &amp; K19 &amp; "' data-Pres='" &amp; L19 &amp; "' data-Mondosh='" &amp; M19 &amp; "' data-Manga='" &amp; N19 &amp; "' Data-Evil='" &amp; O19 &amp; "'&gt;" &amp; B19 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='5' data-Leeloo='4' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Une journée en enfer&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1086,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="R20" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E20 &amp; "' data-Leeloo='" &amp; F20 &amp; "' data-Zorg='" &amp; G20 &amp; "' data-Ruby='" &amp; H20 &amp; "' data-Plava='" &amp; I20 &amp; "' data-Cornelius='" &amp; J20 &amp; "' data-David='" &amp; K20 &amp; "' data-Pres='" &amp; L20 &amp; "' data-Mondosh='" &amp; M20 &amp; "' data-Manga='" &amp; N20 &amp; "' Data-Evil='" &amp; O20 &amp; "'&gt;" &amp; B20 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='2' data-Leeloo='' data-Zorg='' data-Ruby='5' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Rush Hour&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1101,7 +1306,7 @@
         <v>5</v>
       </c>
       <c r="R21" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E21 &amp; "' data-Leeloo='" &amp; F21 &amp; "' data-Zorg='" &amp; G21 &amp; "' data-Ruby='" &amp; H21 &amp; "' data-Plava='" &amp; I21 &amp; "' data-Cornelius='" &amp; J21 &amp; "' data-David='" &amp; K21 &amp; "' data-Pres='" &amp; L21 &amp; "' data-Mondosh='" &amp; M21 &amp; "' data-Manga='" &amp; N21 &amp; "' Data-Evil='" &amp; O21 &amp; "'&gt;" &amp; B21 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="1"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='3' Data-Evil='5'&gt;J'aime pas les films&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1122,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="R23" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E23 &amp; "' data-Leeloo='" &amp; F23 &amp; "' data-Zorg='" &amp; G23 &amp; "' data-Ruby='" &amp; H23 &amp; "' data-Plava='" &amp; I23 &amp; "' data-Cornelius='" &amp; J23 &amp; "' data-David='" &amp; K23 &amp; "' data-Pres='" &amp; L23 &amp; "' data-Mondosh='" &amp; M23 &amp; "' data-Manga='" &amp; N23 &amp; "' Data-Evil='" &amp; O23 &amp; "'&gt;" &amp; B23 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R23:R29" si="2">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E23 &amp; "' data-Leeloo='" &amp; F23 &amp; "' data-Zorg='" &amp; G23 &amp; "' data-Ruby='" &amp; H23 &amp; "' data-Plava='" &amp; I23 &amp; "' data-Cornelius='" &amp; J23 &amp; "' data-David='" &amp; K23 &amp; "' data-Pres='" &amp; L23 &amp; "' data-Mondosh='" &amp; M23 &amp; "' data-Manga='" &amp; N23 &amp; "' Data-Evil='" &amp; O23 &amp; "'&gt;" &amp; B23 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='4' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Kangourou&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1134,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="R24" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E24 &amp; "' data-Leeloo='" &amp; F24 &amp; "' data-Zorg='" &amp; G24 &amp; "' data-Ruby='" &amp; H24 &amp; "' data-Plava='" &amp; I24 &amp; "' data-Cornelius='" &amp; J24 &amp; "' data-David='" &amp; K24 &amp; "' data-Pres='" &amp; L24 &amp; "' data-Mondosh='" &amp; M24 &amp; "' data-Manga='" &amp; N24 &amp; "' Data-Evil='" &amp; O24 &amp; "'&gt;" &amp; B24 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='5' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Eléphant&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1167,7 +1372,7 @@
         <v>4</v>
       </c>
       <c r="R25" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E25 &amp; "' data-Leeloo='" &amp; F25 &amp; "' data-Zorg='" &amp; G25 &amp; "' data-Ruby='" &amp; H25 &amp; "' data-Plava='" &amp; I25 &amp; "' data-Cornelius='" &amp; J25 &amp; "' data-David='" &amp; K25 &amp; "' data-Pres='" &amp; L25 &amp; "' data-Mondosh='" &amp; M25 &amp; "' data-Manga='" &amp; N25 &amp; "' Data-Evil='" &amp; O25 &amp; "'&gt;" &amp; B25 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='2' data-Leeloo='2' data-Zorg='' data-Ruby='3' data-Plava='4' data-Cornelius='3' data-David='3' data-Pres='5' data-Mondosh='4' data-Manga='' Data-Evil=''&gt;Panda&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1182,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="R26" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E26 &amp; "' data-Leeloo='" &amp; F26 &amp; "' data-Zorg='" &amp; G26 &amp; "' data-Ruby='" &amp; H26 &amp; "' data-Plava='" &amp; I26 &amp; "' data-Cornelius='" &amp; J26 &amp; "' data-David='" &amp; K26 &amp; "' data-Pres='" &amp; L26 &amp; "' data-Mondosh='" &amp; M26 &amp; "' data-Manga='" &amp; N26 &amp; "' Data-Evil='" &amp; O26 &amp; "'&gt;" &amp; B26 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='3' data-David='3' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Tortue&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1197,7 +1402,7 @@
         <v>3</v>
       </c>
       <c r="R27" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E27 &amp; "' data-Leeloo='" &amp; F27 &amp; "' data-Zorg='" &amp; G27 &amp; "' data-Ruby='" &amp; H27 &amp; "' data-Plava='" &amp; I27 &amp; "' data-Cornelius='" &amp; J27 &amp; "' data-David='" &amp; K27 &amp; "' data-Pres='" &amp; L27 &amp; "' data-Mondosh='" &amp; M27 &amp; "' data-Manga='" &amp; N27 &amp; "' Data-Evil='" &amp; O27 &amp; "'&gt;" &amp; B27 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='4' data-Leeloo='3' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Chat&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1212,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="R28" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E28 &amp; "' data-Leeloo='" &amp; F28 &amp; "' data-Zorg='" &amp; G28 &amp; "' data-Ruby='" &amp; H28 &amp; "' data-Plava='" &amp; I28 &amp; "' data-Cornelius='" &amp; J28 &amp; "' data-David='" &amp; K28 &amp; "' data-Pres='" &amp; L28 &amp; "' data-Mondosh='" &amp; M28 &amp; "' data-Manga='" &amp; N28 &amp; "' Data-Evil='" &amp; O28 &amp; "'&gt;" &amp; B28 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='4' data-Zorg='' data-Ruby='' data-Plava='5' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Dauphin&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1227,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="R29" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E29 &amp; "' data-Leeloo='" &amp; F29 &amp; "' data-Zorg='" &amp; G29 &amp; "' data-Ruby='" &amp; H29 &amp; "' data-Plava='" &amp; I29 &amp; "' data-Cornelius='" &amp; J29 &amp; "' data-David='" &amp; K29 &amp; "' data-Pres='" &amp; L29 &amp; "' data-Mondosh='" &amp; M29 &amp; "' data-Manga='" &amp; N29 &amp; "' Data-Evil='" &amp; O29 &amp; "'&gt;" &amp; B29 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="2"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='5' Data-Evil='5'&gt;J'aime pas les animaux (ou alors cuits au lance-flamme)&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1251,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="R31" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E31 &amp; "' data-Leeloo='" &amp; F31 &amp; "' data-Zorg='" &amp; G31 &amp; "' data-Ruby='" &amp; H31 &amp; "' data-Plava='" &amp; I31 &amp; "' data-Cornelius='" &amp; J31 &amp; "' data-David='" &amp; K31 &amp; "' data-Pres='" &amp; L31 &amp; "' data-Mondosh='" &amp; M31 &amp; "' data-Manga='" &amp; N31 &amp; "' Data-Evil='" &amp; O31 &amp; "'&gt;" &amp; B31 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R31:R38" si="3">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E31 &amp; "' data-Leeloo='" &amp; F31 &amp; "' data-Zorg='" &amp; G31 &amp; "' data-Ruby='" &amp; H31 &amp; "' data-Plava='" &amp; I31 &amp; "' data-Cornelius='" &amp; J31 &amp; "' data-David='" &amp; K31 &amp; "' data-Pres='" &amp; L31 &amp; "' data-Mondosh='" &amp; M31 &amp; "' data-Manga='" &amp; N31 &amp; "' Data-Evil='" &amp; O31 &amp; "'&gt;" &amp; B31 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='2' data-Leeloo='5' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Karaté&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1269,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="R32" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E32 &amp; "' data-Leeloo='" &amp; F32 &amp; "' data-Zorg='" &amp; G32 &amp; "' data-Ruby='" &amp; H32 &amp; "' data-Plava='" &amp; I32 &amp; "' data-Cornelius='" &amp; J32 &amp; "' data-David='" &amp; K32 &amp; "' data-Pres='" &amp; L32 &amp; "' data-Mondosh='" &amp; M32 &amp; "' data-Manga='" &amp; N32 &amp; "' Data-Evil='" &amp; O32 &amp; "'&gt;" &amp; B32 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='4' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='5' Data-Evil='5'&gt;Ultimate fight&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1287,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="R33" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E33 &amp; "' data-Leeloo='" &amp; F33 &amp; "' data-Zorg='" &amp; G33 &amp; "' data-Ruby='" &amp; H33 &amp; "' data-Plava='" &amp; I33 &amp; "' data-Cornelius='" &amp; J33 &amp; "' data-David='" &amp; K33 &amp; "' data-Pres='" &amp; L33 &amp; "' data-Mondosh='" &amp; M33 &amp; "' data-Manga='" &amp; N33 &amp; "' Data-Evil='" &amp; O33 &amp; "'&gt;" &amp; B33 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='4' data-Plava='5' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='3' data-Manga='' Data-Evil=''&gt;Chant&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1302,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="R34" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E34 &amp; "' data-Leeloo='" &amp; F34 &amp; "' data-Zorg='" &amp; G34 &amp; "' data-Ruby='" &amp; H34 &amp; "' data-Plava='" &amp; I34 &amp; "' data-Cornelius='" &amp; J34 &amp; "' data-David='" &amp; K34 &amp; "' data-Pres='" &amp; L34 &amp; "' data-Mondosh='" &amp; M34 &amp; "' data-Manga='" &amp; N34 &amp; "' Data-Evil='" &amp; O34 &amp; "'&gt;" &amp; B34 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='5' data-Plava='' data-Cornelius='2' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Couture&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1323,7 +1528,7 @@
         <v>4</v>
       </c>
       <c r="R35" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E35 &amp; "' data-Leeloo='" &amp; F35 &amp; "' data-Zorg='" &amp; G35 &amp; "' data-Ruby='" &amp; H35 &amp; "' data-Plava='" &amp; I35 &amp; "' data-Cornelius='" &amp; J35 &amp; "' data-David='" &amp; K35 &amp; "' data-Pres='" &amp; L35 &amp; "' data-Mondosh='" &amp; M35 &amp; "' data-Manga='" &amp; N35 &amp; "' Data-Evil='" &amp; O35 &amp; "'&gt;" &amp; B35 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='3' data-Ruby='5' data-Plava='4' data-Cornelius='' data-David='' data-Pres='4' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Théâtre&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1341,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="R36" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E36 &amp; "' data-Leeloo='" &amp; F36 &amp; "' data-Zorg='" &amp; G36 &amp; "' data-Ruby='" &amp; H36 &amp; "' data-Plava='" &amp; I36 &amp; "' data-Cornelius='" &amp; J36 &amp; "' data-David='" &amp; K36 &amp; "' data-Pres='" &amp; L36 &amp; "' data-Mondosh='" &amp; M36 &amp; "' data-Manga='" &amp; N36 &amp; "' Data-Evil='" &amp; O36 &amp; "'&gt;" &amp; B36 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='3' data-David='' data-Pres='3' data-Mondosh='5' data-Manga='' Data-Evil=''&gt;La sieste&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1359,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="R37" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E37 &amp; "' data-Leeloo='" &amp; F37 &amp; "' data-Zorg='" &amp; G37 &amp; "' data-Ruby='" &amp; H37 &amp; "' data-Plava='" &amp; I37 &amp; "' data-Cornelius='" &amp; J37 &amp; "' data-David='" &amp; K37 &amp; "' data-Pres='" &amp; L37 &amp; "' data-Mondosh='" &amp; M37 &amp; "' data-Manga='" &amp; N37 &amp; "' Data-Evil='" &amp; O37 &amp; "'&gt;" &amp; B37 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='4' data-Leeloo='' data-Zorg='4' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='3' Data-Evil=''&gt;Paintball&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1374,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="R38" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E38 &amp; "' data-Leeloo='" &amp; F38 &amp; "' data-Zorg='" &amp; G38 &amp; "' data-Ruby='" &amp; H38 &amp; "' data-Plava='" &amp; I38 &amp; "' data-Cornelius='" &amp; J38 &amp; "' data-David='" &amp; K38 &amp; "' data-Pres='" &amp; L38 &amp; "' data-Mondosh='" &amp; M38 &amp; "' data-Manga='" &amp; N38 &amp; "' Data-Evil='" &amp; O38 &amp; "'&gt;" &amp; B38 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="3"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='5' data-David='5' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Catéchisme&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1527,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="R46" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E46 &amp; "' data-Leeloo='" &amp; F46 &amp; "' data-Zorg='" &amp; G46 &amp; "' data-Ruby='" &amp; H46 &amp; "' data-Plava='" &amp; I46 &amp; "' data-Cornelius='" &amp; J46 &amp; "' data-David='" &amp; K46 &amp; "' data-Pres='" &amp; L46 &amp; "' data-Mondosh='" &amp; M46 &amp; "' data-Manga='" &amp; N46 &amp; "' Data-Evil='" &amp; O46 &amp; "'&gt;" &amp; B46 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R46:R52" si="4">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E46 &amp; "' data-Leeloo='" &amp; F46 &amp; "' data-Zorg='" &amp; G46 &amp; "' data-Ruby='" &amp; H46 &amp; "' data-Plava='" &amp; I46 &amp; "' data-Cornelius='" &amp; J46 &amp; "' data-David='" &amp; K46 &amp; "' data-Pres='" &amp; L46 &amp; "' data-Mondosh='" &amp; M46 &amp; "' data-Manga='" &amp; N46 &amp; "' Data-Evil='" &amp; O46 &amp; "'&gt;" &amp; B46 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='1' data-Leeloo='3' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Pyramides&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1539,7 +1744,7 @@
         <v>5</v>
       </c>
       <c r="R47" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E47 &amp; "' data-Leeloo='" &amp; F47 &amp; "' data-Zorg='" &amp; G47 &amp; "' data-Ruby='" &amp; H47 &amp; "' data-Plava='" &amp; I47 &amp; "' data-Cornelius='" &amp; J47 &amp; "' data-David='" &amp; K47 &amp; "' data-Pres='" &amp; L47 &amp; "' data-Mondosh='" &amp; M47 &amp; "' data-Manga='" &amp; N47 &amp; "' Data-Evil='" &amp; O47 &amp; "'&gt;" &amp; B47 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='5' Data-Evil=''&gt;Le colosse de Rhodes&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1554,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="R48" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E48 &amp; "' data-Leeloo='" &amp; F48 &amp; "' data-Zorg='" &amp; G48 &amp; "' data-Ruby='" &amp; H48 &amp; "' data-Plava='" &amp; I48 &amp; "' data-Cornelius='" &amp; J48 &amp; "' data-David='" &amp; K48 &amp; "' data-Pres='" &amp; L48 &amp; "' data-Mondosh='" &amp; M48 &amp; "' data-Manga='" &amp; N48 &amp; "' Data-Evil='" &amp; O48 &amp; "'&gt;" &amp; B48 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='5' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='3' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Statue de Zeus&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1569,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="R49" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E49 &amp; "' data-Leeloo='" &amp; F49 &amp; "' data-Zorg='" &amp; G49 &amp; "' data-Ruby='" &amp; H49 &amp; "' data-Plava='" &amp; I49 &amp; "' data-Cornelius='" &amp; J49 &amp; "' data-David='" &amp; K49 &amp; "' data-Pres='" &amp; L49 &amp; "' data-Mondosh='" &amp; M49 &amp; "' data-Manga='" &amp; N49 &amp; "' Data-Evil='" &amp; O49 &amp; "'&gt;" &amp; B49 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='5' data-David='5' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Le temple d'Artémis&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1584,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="R50" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E50 &amp; "' data-Leeloo='" &amp; F50 &amp; "' data-Zorg='" &amp; G50 &amp; "' data-Ruby='" &amp; H50 &amp; "' data-Plava='" &amp; I50 &amp; "' data-Cornelius='" &amp; J50 &amp; "' data-David='" &amp; K50 &amp; "' data-Pres='" &amp; L50 &amp; "' data-Mondosh='" &amp; M50 &amp; "' data-Manga='" &amp; N50 &amp; "' Data-Evil='" &amp; O50 &amp; "'&gt;" &amp; B50 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='1' data-Leeloo='' data-Zorg='' data-Ruby='3' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Le phare d'Alexandrie&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1602,7 +1807,7 @@
         <v>5</v>
       </c>
       <c r="R51" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E51 &amp; "' data-Leeloo='" &amp; F51 &amp; "' data-Zorg='" &amp; G51 &amp; "' data-Ruby='" &amp; H51 &amp; "' data-Plava='" &amp; I51 &amp; "' data-Cornelius='" &amp; J51 &amp; "' data-David='" &amp; K51 &amp; "' data-Pres='" &amp; L51 &amp; "' data-Mondosh='" &amp; M51 &amp; "' data-Manga='" &amp; N51 &amp; "' Data-Evil='" &amp; O51 &amp; "'&gt;" &amp; B51 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='5' data-Zorg='' data-Ruby='' data-Plava='3' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='5' data-Manga='' Data-Evil=''&gt;Les Jardins suspendus de Babylone&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1617,7 +1822,7 @@
         <v>5</v>
       </c>
       <c r="R52" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E52 &amp; "' data-Leeloo='" &amp; F52 &amp; "' data-Zorg='" &amp; G52 &amp; "' data-Ruby='" &amp; H52 &amp; "' data-Plava='" &amp; I52 &amp; "' data-Cornelius='" &amp; J52 &amp; "' data-David='" &amp; K52 &amp; "' data-Pres='" &amp; L52 &amp; "' data-Mondosh='" &amp; M52 &amp; "' data-Manga='" &amp; N52 &amp; "' Data-Evil='" &amp; O52 &amp; "'&gt;" &amp; B52 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="4"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='3' Data-Evil='5'&gt;Une bonne Merveille est une Merveille détruite&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1642,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="R54" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E54 &amp; "' data-Leeloo='" &amp; F54 &amp; "' data-Zorg='" &amp; G54 &amp; "' data-Ruby='" &amp; H54 &amp; "' data-Plava='" &amp; I54 &amp; "' data-Cornelius='" &amp; J54 &amp; "' data-David='" &amp; K54 &amp; "' data-Pres='" &amp; L54 &amp; "' data-Mondosh='" &amp; M54 &amp; "' data-Manga='" &amp; N54 &amp; "' Data-Evil='" &amp; O54 &amp; "'&gt;" &amp; B54 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R54:R60" si="5">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E54 &amp; "' data-Leeloo='" &amp; F54 &amp; "' data-Zorg='" &amp; G54 &amp; "' data-Ruby='" &amp; H54 &amp; "' data-Plava='" &amp; I54 &amp; "' data-Cornelius='" &amp; J54 &amp; "' data-David='" &amp; K54 &amp; "' data-Pres='" &amp; L54 &amp; "' data-Mondosh='" &amp; M54 &amp; "' data-Manga='" &amp; N54 &amp; "' Data-Evil='" &amp; O54 &amp; "'&gt;" &amp; B54 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='3' Data-Evil='5'&gt;Noir&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1657,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="R55" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E55 &amp; "' data-Leeloo='" &amp; F55 &amp; "' data-Zorg='" &amp; G55 &amp; "' data-Ruby='" &amp; H55 &amp; "' data-Plava='" &amp; I55 &amp; "' data-Cornelius='" &amp; J55 &amp; "' data-David='" &amp; K55 &amp; "' data-Pres='" &amp; L55 &amp; "' data-Mondosh='" &amp; M55 &amp; "' data-Manga='" &amp; N55 &amp; "' Data-Evil='" &amp; O55 &amp; "'&gt;" &amp; B55 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='5' data-Cornelius='' data-David='' data-Pres='3' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Bleu&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1675,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="R56" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E56 &amp; "' data-Leeloo='" &amp; F56 &amp; "' data-Zorg='" &amp; G56 &amp; "' data-Ruby='" &amp; H56 &amp; "' data-Plava='" &amp; I56 &amp; "' data-Cornelius='" &amp; J56 &amp; "' data-David='" &amp; K56 &amp; "' data-Pres='" &amp; L56 &amp; "' data-Mondosh='" &amp; M56 &amp; "' data-Manga='" &amp; N56 &amp; "' Data-Evil='" &amp; O56 &amp; "'&gt;" &amp; B56 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='5' data-Ruby='4' data-Plava='' data-Cornelius='' data-David='' data-Pres='4' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Or&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1687,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="R57" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E57 &amp; "' data-Leeloo='" &amp; F57 &amp; "' data-Zorg='" &amp; G57 &amp; "' data-Ruby='" &amp; H57 &amp; "' data-Plava='" &amp; I57 &amp; "' data-Cornelius='" &amp; J57 &amp; "' data-David='" &amp; K57 &amp; "' data-Pres='" &amp; L57 &amp; "' data-Mondosh='" &amp; M57 &amp; "' data-Manga='" &amp; N57 &amp; "' Data-Evil='" &amp; O57 &amp; "'&gt;" &amp; B57 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='4' data-Manga='' Data-Evil=''&gt;Bronze&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1702,7 +1907,7 @@
         <v>5</v>
       </c>
       <c r="R58" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E58 &amp; "' data-Leeloo='" &amp; F58 &amp; "' data-Zorg='" &amp; G58 &amp; "' data-Ruby='" &amp; H58 &amp; "' data-Plava='" &amp; I58 &amp; "' data-Cornelius='" &amp; J58 &amp; "' data-David='" &amp; K58 &amp; "' data-Pres='" &amp; L58 &amp; "' data-Mondosh='" &amp; M58 &amp; "' data-Manga='" &amp; N58 &amp; "' Data-Evil='" &amp; O58 &amp; "'&gt;" &amp; B58 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='5' data-Leeloo='5' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Orange&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1717,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="R59" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E59 &amp; "' data-Leeloo='" &amp; F59 &amp; "' data-Zorg='" &amp; G59 &amp; "' data-Ruby='" &amp; H59 &amp; "' data-Plava='" &amp; I59 &amp; "' data-Cornelius='" &amp; J59 &amp; "' data-David='" &amp; K59 &amp; "' data-Pres='" &amp; L59 &amp; "' data-Mondosh='" &amp; M59 &amp; "' data-Manga='" &amp; N59 &amp; "' Data-Evil='" &amp; O59 &amp; "'&gt;" &amp; B59 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='4' data-David='4' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Blanc&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1729,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="R60" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E60 &amp; "' data-Leeloo='" &amp; F60 &amp; "' data-Zorg='" &amp; G60 &amp; "' data-Ruby='" &amp; H60 &amp; "' data-Plava='" &amp; I60 &amp; "' data-Cornelius='" &amp; J60 &amp; "' data-David='" &amp; K60 &amp; "' data-Pres='" &amp; L60 &amp; "' data-Mondosh='" &amp; M60 &amp; "' data-Manga='" &amp; N60 &amp; "' Data-Evil='" &amp; O60 &amp; "'&gt;" &amp; B60 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="5"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='5' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Toutes !&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1891,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="R68" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E68 &amp; "' data-Leeloo='" &amp; F68 &amp; "' data-Zorg='" &amp; G68 &amp; "' data-Ruby='" &amp; H68 &amp; "' data-Plava='" &amp; I68 &amp; "' data-Cornelius='" &amp; J68 &amp; "' data-David='" &amp; K68 &amp; "' data-Pres='" &amp; L68 &amp; "' data-Mondosh='" &amp; M68 &amp; "' data-Manga='" &amp; N68 &amp; "' Data-Evil='" &amp; O68 &amp; "'&gt;" &amp; B68 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R68:R74" si="6">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E68 &amp; "' data-Leeloo='" &amp; F68 &amp; "' data-Zorg='" &amp; G68 &amp; "' data-Ruby='" &amp; H68 &amp; "' data-Plava='" &amp; I68 &amp; "' data-Cornelius='" &amp; J68 &amp; "' data-David='" &amp; K68 &amp; "' data-Pres='" &amp; L68 &amp; "' data-Mondosh='" &amp; M68 &amp; "' data-Manga='" &amp; N68 &amp; "' Data-Evil='" &amp; O68 &amp; "'&gt;" &amp; B68 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='4' data-Ruby='2' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='5' Data-Evil='5'&gt;Psychopathe&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1915,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="R69" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E69 &amp; "' data-Leeloo='" &amp; F69 &amp; "' data-Zorg='" &amp; G69 &amp; "' data-Ruby='" &amp; H69 &amp; "' data-Plava='" &amp; I69 &amp; "' data-Cornelius='" &amp; J69 &amp; "' data-David='" &amp; K69 &amp; "' data-Pres='" &amp; L69 &amp; "' data-Mondosh='" &amp; M69 &amp; "' data-Manga='" &amp; N69 &amp; "' Data-Evil='" &amp; O69 &amp; "'&gt;" &amp; B69 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="6"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='5' data-Zorg='' data-Ruby='5' data-Plava='4' data-Cornelius='4' data-David='5' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Emotif&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1933,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="R70" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E70 &amp; "' data-Leeloo='" &amp; F70 &amp; "' data-Zorg='" &amp; G70 &amp; "' data-Ruby='" &amp; H70 &amp; "' data-Plava='" &amp; I70 &amp; "' data-Cornelius='" &amp; J70 &amp; "' data-David='" &amp; K70 &amp; "' data-Pres='" &amp; L70 &amp; "' data-Mondosh='" &amp; M70 &amp; "' data-Manga='" &amp; N70 &amp; "' Data-Evil='" &amp; O70 &amp; "'&gt;" &amp; B70 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="6"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='5' data-Plava='' data-Cornelius='3' data-David='5' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Peureux&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1951,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="R71" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E71 &amp; "' data-Leeloo='" &amp; F71 &amp; "' data-Zorg='" &amp; G71 &amp; "' data-Ruby='" &amp; H71 &amp; "' data-Plava='" &amp; I71 &amp; "' data-Cornelius='" &amp; J71 &amp; "' data-David='" &amp; K71 &amp; "' data-Pres='" &amp; L71 &amp; "' data-Mondosh='" &amp; M71 &amp; "' data-Manga='" &amp; N71 &amp; "' Data-Evil='" &amp; O71 &amp; "'&gt;" &amp; B71 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="6"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='2' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='5' data-Manga='' Data-Evil='4'&gt;Lent&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1969,7 +2174,7 @@
         <v>5</v>
       </c>
       <c r="R72" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E72 &amp; "' data-Leeloo='" &amp; F72 &amp; "' data-Zorg='" &amp; G72 &amp; "' data-Ruby='" &amp; H72 &amp; "' data-Plava='" &amp; I72 &amp; "' data-Cornelius='" &amp; J72 &amp; "' data-David='" &amp; K72 &amp; "' data-Pres='" &amp; L72 &amp; "' data-Mondosh='" &amp; M72 &amp; "' data-Manga='" &amp; N72 &amp; "' Data-Evil='" &amp; O72 &amp; "'&gt;" &amp; B72 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="6"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='5' data-Leeloo='' data-Zorg='4' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='5' Data-Evil=''&gt;Impulsif&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -1990,7 +2195,7 @@
         <v>3</v>
       </c>
       <c r="R73" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E73 &amp; "' data-Leeloo='" &amp; F73 &amp; "' data-Zorg='" &amp; G73 &amp; "' data-Ruby='" &amp; H73 &amp; "' data-Plava='" &amp; I73 &amp; "' data-Cornelius='" &amp; J73 &amp; "' data-David='" &amp; K73 &amp; "' data-Pres='" &amp; L73 &amp; "' data-Mondosh='" &amp; M73 &amp; "' data-Manga='" &amp; N73 &amp; "' Data-Evil='" &amp; O73 &amp; "'&gt;" &amp; B73 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="6"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='3' data-Plava='' data-Cornelius='' data-David='5' data-Pres='4' data-Mondosh='' data-Manga='3' Data-Evil=''&gt;Influençable&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2008,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="R74" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E74 &amp; "' data-Leeloo='" &amp; F74 &amp; "' data-Zorg='" &amp; G74 &amp; "' data-Ruby='" &amp; H74 &amp; "' data-Plava='" &amp; I74 &amp; "' data-Cornelius='" &amp; J74 &amp; "' data-David='" &amp; K74 &amp; "' data-Pres='" &amp; L74 &amp; "' data-Mondosh='" &amp; M74 &amp; "' data-Manga='" &amp; N74 &amp; "' Data-Evil='" &amp; O74 &amp; "'&gt;" &amp; B74 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="6"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='3' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='5' data-Mondosh='' data-Manga='4' Data-Evil=''&gt;Ambitieux&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2047,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="R76" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E76 &amp; "' data-Leeloo='" &amp; F76 &amp; "' data-Zorg='" &amp; G76 &amp; "' data-Ruby='" &amp; H76 &amp; "' data-Plava='" &amp; I76 &amp; "' data-Cornelius='" &amp; J76 &amp; "' data-David='" &amp; K76 &amp; "' data-Pres='" &amp; L76 &amp; "' data-Mondosh='" &amp; M76 &amp; "' data-Manga='" &amp; N76 &amp; "' Data-Evil='" &amp; O76 &amp; "'&gt;" &amp; B76 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R76:R82" si="7">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E76 &amp; "' data-Leeloo='" &amp; F76 &amp; "' data-Zorg='" &amp; G76 &amp; "' data-Ruby='" &amp; H76 &amp; "' data-Plava='" &amp; I76 &amp; "' data-Cornelius='" &amp; J76 &amp; "' data-David='" &amp; K76 &amp; "' data-Pres='" &amp; L76 &amp; "' data-Mondosh='" &amp; M76 &amp; "' data-Manga='" &amp; N76 &amp; "' Data-Evil='" &amp; O76 &amp; "'&gt;" &amp; B76 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='3' data-Leeloo='2' data-Zorg='5' data-Ruby='1' data-Plava='' data-Cornelius='' data-David='' data-Pres='5' data-Mondosh='2' data-Manga='5' Data-Evil=''&gt;Napoléon&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2080,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="R77" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E77 &amp; "' data-Leeloo='" &amp; F77 &amp; "' data-Zorg='" &amp; G77 &amp; "' data-Ruby='" &amp; H77 &amp; "' data-Plava='" &amp; I77 &amp; "' data-Cornelius='" &amp; J77 &amp; "' data-David='" &amp; K77 &amp; "' data-Pres='" &amp; L77 &amp; "' data-Mondosh='" &amp; M77 &amp; "' data-Manga='" &amp; N77 &amp; "' Data-Evil='" &amp; O77 &amp; "'&gt;" &amp; B77 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="7"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='5' data-Leeloo='5' data-Zorg='' data-Ruby='2' data-Plava='' data-Cornelius='1' data-David='2' data-Pres='3' data-Mondosh='3' data-Manga='4' Data-Evil=''&gt;Bruce Willis&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2101,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="R78" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E78 &amp; "' data-Leeloo='" &amp; F78 &amp; "' data-Zorg='" &amp; G78 &amp; "' data-Ruby='" &amp; H78 &amp; "' data-Plava='" &amp; I78 &amp; "' data-Cornelius='" &amp; J78 &amp; "' data-David='" &amp; K78 &amp; "' data-Pres='" &amp; L78 &amp; "' data-Mondosh='" &amp; M78 &amp; "' data-Manga='" &amp; N78 &amp; "' Data-Evil='" &amp; O78 &amp; "'&gt;" &amp; B78 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="7"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='5' data-David='5' data-Pres='2' data-Mondosh='2' data-Manga='' Data-Evil=''&gt;Jean-Paul II&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2113,7 +2318,7 @@
         <v>5</v>
       </c>
       <c r="R79" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E79 &amp; "' data-Leeloo='" &amp; F79 &amp; "' data-Zorg='" &amp; G79 &amp; "' data-Ruby='" &amp; H79 &amp; "' data-Plava='" &amp; I79 &amp; "' data-Cornelius='" &amp; J79 &amp; "' data-David='" &amp; K79 &amp; "' data-Pres='" &amp; L79 &amp; "' data-Mondosh='" &amp; M79 &amp; "' data-Manga='" &amp; N79 &amp; "' Data-Evil='" &amp; O79 &amp; "'&gt;" &amp; B79 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="7"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='5' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Prince&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2140,7 +2345,7 @@
         <v>3</v>
       </c>
       <c r="R80" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E80 &amp; "' data-Leeloo='" &amp; F80 &amp; "' data-Zorg='" &amp; G80 &amp; "' data-Ruby='" &amp; H80 &amp; "' data-Plava='" &amp; I80 &amp; "' data-Cornelius='" &amp; J80 &amp; "' data-David='" &amp; K80 &amp; "' data-Pres='" &amp; L80 &amp; "' data-Mondosh='" &amp; M80 &amp; "' data-Manga='" &amp; N80 &amp; "' Data-Evil='" &amp; O80 &amp; "'&gt;" &amp; B80 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="7"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='4' data-Zorg='2' data-Ruby='' data-Plava='' data-Cornelius='1' data-David='1' data-Pres='2' data-Mondosh='3' data-Manga='' Data-Evil=''&gt;Marie Curie&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2161,7 +2366,7 @@
         <v>5</v>
       </c>
       <c r="R81" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E81 &amp; "' data-Leeloo='" &amp; F81 &amp; "' data-Zorg='" &amp; G81 &amp; "' data-Ruby='" &amp; H81 &amp; "' data-Plava='" &amp; I81 &amp; "' data-Cornelius='" &amp; J81 &amp; "' data-David='" &amp; K81 &amp; "' data-Pres='" &amp; L81 &amp; "' data-Mondosh='" &amp; M81 &amp; "' data-Manga='" &amp; N81 &amp; "' Data-Evil='" &amp; O81 &amp; "'&gt;" &amp; B81 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="7"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='1' data-Leeloo='4' data-Zorg='' data-Ruby='2' data-Plava='5' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Mozart&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2179,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="R82" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E82 &amp; "' data-Leeloo='" &amp; F82 &amp; "' data-Zorg='" &amp; G82 &amp; "' data-Ruby='" &amp; H82 &amp; "' data-Plava='" &amp; I82 &amp; "' data-Cornelius='" &amp; J82 &amp; "' data-David='" &amp; K82 &amp; "' data-Pres='" &amp; L82 &amp; "' data-Mondosh='" &amp; M82 &amp; "' data-Manga='" &amp; N82 &amp; "' Data-Evil='" &amp; O82 &amp; "'&gt;" &amp; B82 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="7"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='5' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='3' data-Mondosh='' data-Manga='2' Data-Evil=''&gt;Donald Trump&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2209,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="R84" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E84 &amp; "' data-Leeloo='" &amp; F84 &amp; "' data-Zorg='" &amp; G84 &amp; "' data-Ruby='" &amp; H84 &amp; "' data-Plava='" &amp; I84 &amp; "' data-Cornelius='" &amp; J84 &amp; "' data-David='" &amp; K84 &amp; "' data-Pres='" &amp; L84 &amp; "' data-Mondosh='" &amp; M84 &amp; "' data-Manga='" &amp; N84 &amp; "' Data-Evil='" &amp; O84 &amp; "'&gt;" &amp; B84 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" ref="R84:R90" si="8">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E84 &amp; "' data-Leeloo='" &amp; F84 &amp; "' data-Zorg='" &amp; G84 &amp; "' data-Ruby='" &amp; H84 &amp; "' data-Plava='" &amp; I84 &amp; "' data-Cornelius='" &amp; J84 &amp; "' data-David='" &amp; K84 &amp; "' data-Pres='" &amp; L84 &amp; "' data-Mondosh='" &amp; M84 &amp; "' data-Manga='" &amp; N84 &amp; "' Data-Evil='" &amp; O84 &amp; "'&gt;" &amp; B84 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='4' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='4' data-David='4' data-Pres='' data-Mondosh='4' data-Manga='' Data-Evil=''&gt;Boule de campagne&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2224,7 +2429,7 @@
         <v>5</v>
       </c>
       <c r="R85" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E85 &amp; "' data-Leeloo='" &amp; F85 &amp; "' data-Zorg='" &amp; G85 &amp; "' data-Ruby='" &amp; H85 &amp; "' data-Plava='" &amp; I85 &amp; "' data-Cornelius='" &amp; J85 &amp; "' data-David='" &amp; K85 &amp; "' data-Pres='" &amp; L85 &amp; "' data-Mondosh='" &amp; M85 &amp; "' data-Manga='" &amp; N85 &amp; "' Data-Evil='" &amp; O85 &amp; "'&gt;" &amp; B85 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='4' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='5' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Baguette&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2239,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="R86" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E86 &amp; "' data-Leeloo='" &amp; F86 &amp; "' data-Zorg='" &amp; G86 &amp; "' data-Ruby='" &amp; H86 &amp; "' data-Plava='" &amp; I86 &amp; "' data-Cornelius='" &amp; J86 &amp; "' data-David='" &amp; K86 &amp; "' data-Pres='" &amp; L86 &amp; "' data-Mondosh='" &amp; M86 &amp; "' data-Manga='" &amp; N86 &amp; "' Data-Evil='" &amp; O86 &amp; "'&gt;" &amp; B86 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='4' data-Leeloo='' data-Zorg='5' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Pain de mie&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2251,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="R87" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E87 &amp; "' data-Leeloo='" &amp; F87 &amp; "' data-Zorg='" &amp; G87 &amp; "' data-Ruby='" &amp; H87 &amp; "' data-Plava='" &amp; I87 &amp; "' data-Cornelius='" &amp; J87 &amp; "' data-David='" &amp; K87 &amp; "' data-Pres='" &amp; L87 &amp; "' data-Mondosh='" &amp; M87 &amp; "' data-Manga='" &amp; N87 &amp; "' Data-Evil='" &amp; O87 &amp; "'&gt;" &amp; B87 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='5' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil=''&gt;Pain au Coca-Cola&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2266,7 +2471,7 @@
         <v>3</v>
       </c>
       <c r="R88" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E88 &amp; "' data-Leeloo='" &amp; F88 &amp; "' data-Zorg='" &amp; G88 &amp; "' data-Ruby='" &amp; H88 &amp; "' data-Plava='" &amp; I88 &amp; "' data-Cornelius='" &amp; J88 &amp; "' data-David='" &amp; K88 &amp; "' data-Pres='" &amp; L88 &amp; "' data-Mondosh='" &amp; M88 &amp; "' data-Manga='" &amp; N88 &amp; "' Data-Evil='" &amp; O88 &amp; "'&gt;" &amp; B88 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='5' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='3' data-Manga='' Data-Evil=''&gt;Pain bleu&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2281,7 +2486,7 @@
         <v>4</v>
       </c>
       <c r="R89" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E89 &amp; "' data-Leeloo='" &amp; F89 &amp; "' data-Zorg='" &amp; G89 &amp; "' data-Ruby='" &amp; H89 &amp; "' data-Plava='" &amp; I89 &amp; "' data-Cornelius='" &amp; J89 &amp; "' data-David='" &amp; K89 &amp; "' data-Pres='" &amp; L89 &amp; "' data-Mondosh='" &amp; M89 &amp; "' data-Manga='" &amp; N89 &amp; "' Data-Evil='" &amp; O89 &amp; "'&gt;" &amp; B89 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='3' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='4' Data-Evil=''&gt;Pain de seigle&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2293,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="R90" t="str">
-        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='" &amp; E90 &amp; "' data-Leeloo='" &amp; F90 &amp; "' data-Zorg='" &amp; G90 &amp; "' data-Ruby='" &amp; H90 &amp; "' data-Plava='" &amp; I90 &amp; "' data-Cornelius='" &amp; J90 &amp; "' data-David='" &amp; K90 &amp; "' data-Pres='" &amp; L90 &amp; "' data-Mondosh='" &amp; M90 &amp; "' data-Manga='" &amp; N90 &amp; "' Data-Evil='" &amp; O90 &amp; "'&gt;" &amp; B90 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <f t="shared" si="8"/>
         <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-Korben='' data-Leeloo='' data-Zorg='' data-Ruby='' data-Plava='' data-Cornelius='' data-David='' data-Pres='' data-Mondosh='' data-Manga='' Data-Evil='5'&gt;J'aime pas le pain&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
@@ -2314,43 +2519,43 @@
         <v>77</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" ref="F92:O92" si="0">SUM(F2:F90)</f>
+        <f t="shared" ref="F92:O92" si="9">SUM(F2:F90)</f>
         <v>96</v>
       </c>
       <c r="G92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>103</v>
       </c>
       <c r="I92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>77</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>86</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="O92" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
     </row>
@@ -2363,44 +2568,1118 @@
         <v>25</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" ref="F93:O93" si="1">COUNTIF(F2:F90,"&lt;&gt;")</f>
+        <f t="shared" ref="F93:O93" si="10">COUNTIF(F2:F90,"&lt;&gt;")</f>
         <v>26</v>
       </c>
       <c r="G93" s="1">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="H93" s="1">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="I93" s="1">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="J93" s="1">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="K93" s="1">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="L93" s="1">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="N93" s="1">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EC213D-D107-46C8-968C-B9C371BEBFD3}">
+  <dimension ref="A1:N67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="str">
+        <f>"&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; C2 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="N3" t="str">
+        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='" &amp; E3 &amp; "' data-obelix='" &amp; F3 &amp; "' data-idefix='" &amp; G3 &amp; "' data-pano='" &amp; H3 &amp; "' data-abra='" &amp; I3 &amp; "' data-bonemine='" &amp; J3 &amp; "' data-assur='" &amp; K3 &amp; "'&gt;" &amp; B3 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='1' data-obelix='' data-idefix='' data-pano='5' data-abra='3' data-bonemine='4' data-assur=''&gt;Soupe au pistou&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N5" si="0">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='" &amp; E4 &amp; "' data-obelix='" &amp; F4 &amp; "' data-idefix='" &amp; G4 &amp; "' data-pano='" &amp; H4 &amp; "' data-abra='" &amp; I4 &amp; "' data-bonemine='" &amp; J4 &amp; "' data-assur='" &amp; K4 &amp; "'&gt;" &amp; B4 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='3' data-obelix='5' data-idefix='3' data-pano='1' data-abra='3' data-bonemine='1' data-assur=''&gt;Burger au sanglier&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='' data-bonemine='2' data-assur='4'&gt;Toasts de saumon fumé&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N6" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A6 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel cadeau aimerais-tu le plus pour ton anniversaire ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="N7" t="str">
+        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='" &amp; E7 &amp; "' data-obelix='" &amp; F7 &amp; "' data-idefix='" &amp; G7 &amp; "' data-pano='" &amp; H7 &amp; "' data-abra='" &amp; I7 &amp; "' data-bonemine='" &amp; J7 &amp; "' data-assur='" &amp; K7 &amp; "'&gt;" &amp; B7 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='' data-bonemine='4' data-assur=''&gt;Rouleau à pâtisserie&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ref="N8:N12" si="1">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='" &amp; E8 &amp; "' data-obelix='" &amp; F8 &amp; "' data-idefix='" &amp; G8 &amp; "' data-pano='" &amp; H8 &amp; "' data-abra='" &amp; I8 &amp; "' data-bonemine='" &amp; J8 &amp; "' data-assur='" &amp; K8 &amp; "'&gt;" &amp; B8 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='4' data-obelix='2' data-idefix='' data-pano='' data-abra='2' data-bonemine='' data-assur=''&gt;Glaive&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="H93" s="1">
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='1' data-obelix='' data-idefix='' data-pano='' data-abra='4' data-bonemine='' data-assur=''&gt;Bouclier&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="N10" t="str">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="I93" s="1">
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='5' data-abra='' data-bonemine='2' data-assur=''&gt;Une marmite&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="1"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='3' data-idefix='5' data-pano='' data-abra='' data-bonemine='1' data-assur=''&gt;Une BD de Boule et Bill&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='' data-bonemine='' data-assur='5'&gt;Un CD de Mireille Matthieu&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N13" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A13 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel endroit aimerais-tu visiter ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="N14" t="str">
+        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='" &amp; E14 &amp; "' data-obelix='" &amp; F14 &amp; "' data-idefix='" &amp; G14 &amp; "' data-pano='" &amp; H14 &amp; "' data-abra='" &amp; I14 &amp; "' data-bonemine='" &amp; J14 &amp; "' data-assur='" &amp; K14 &amp; "'&gt;" &amp; B14 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='' data-bonemine='2' data-assur='5'&gt;L'Opéra de Milan&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" ref="N15:N64" si="2">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='" &amp; E15 &amp; "' data-obelix='" &amp; F15 &amp; "' data-idefix='" &amp; G15 &amp; "' data-pano='" &amp; H15 &amp; "' data-abra='" &amp; I15 &amp; "' data-bonemine='" &amp; J15 &amp; "' data-assur='" &amp; K15 &amp; "'&gt;" &amp; B15 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='2' data-obelix='5' data-idefix='' data-pano='3' data-abra='' data-bonemine='' data-assur=''&gt;Stonehenge&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='5' data-bonemine='' data-assur=''&gt;Je suis très bien là où je suis&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='2' data-abra='' data-bonemine='4' data-assur=''&gt;Les Quais de Lutèce&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='3' data-obelix='3' data-idefix='3' data-pano='' data-abra='' data-bonemine='' data-assur=''&gt;Un camp romain&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='5' data-idefix='4' data-pano='3' data-abra='' data-bonemine='' data-assur='2'&gt;La forêt, on y trouve toujours des choses intéressantes&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A20 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quelle est ton émission de télé préférée ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='4' data-obelix='5' data-idefix='' data-pano='' data-abra='' data-bonemine='' data-assur=''&gt;Les Jeux Olympiques&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='4' data-abra='5' data-bonemine='5' data-assur=''&gt;Top Chef&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='' data-bonemine='' data-assur='5'&gt;The Voice&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='4' data-abra='' data-bonemine='' data-assur=''&gt;Fort Boyard&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='5' data-pano='' data-abra='' data-bonemine='1' data-assur='2'&gt;Une saison au zoo&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='2' data-bonemine='3' data-assur='3'&gt;Les Rois de la réno&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N27" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A27 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton végétal préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='1' data-obelix='5' data-idefix='' data-pano='' data-abra='1' data-bonemine='3' data-assur='4'&gt;Champignons&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='5' data-abra='' data-bonemine='' data-assur=''&gt;Gui&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='1' data-obelix='2' data-idefix='' data-pano='1' data-abra='' data-bonemine='4' data-assur=''&gt;Fleurs&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='3' data-idefix='' data-pano='2' data-abra='' data-bonemine='' data-assur=''&gt;Marronnier&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='3' data-abra='4' data-bonemine='' data-assur='2'&gt;Tilleul&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='5' data-pano='2' data-abra='' data-bonemine='' data-assur='4'&gt;Les arbres, tous les arbres&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A34 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;A la plage, tu préfères :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='4' data-idefix='' data-pano='' data-abra='' data-bonemine='2' data-assur=''&gt;Te baigner&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='2' data-obelix='' data-idefix='4' data-pano='' data-abra='3' data-bonemine='' data-assur=''&gt;Jouer dans le sable&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='3' data-abra='' data-bonemine='' data-assur='3'&gt;Bronzer&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='3' data-abra='' data-bonemine='3' data-assur=''&gt;Lire&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='3' data-obelix='' data-idefix='' data-pano='' data-abra='' data-bonemine='' data-assur=''&gt;Jouer au ballon&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N40" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A40 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton film préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='' data-bonemine='' data-assur='5'&gt;Mary Poppins&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='5' data-abra='' data-bonemine='' data-assur=''&gt;Le Seigneur des Anneaux&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='4' data-pano='3' data-abra='' data-bonemine='' data-assur=''&gt;Nausicaä de la Vallée du Vent&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='3' data-idefix='' data-pano='' data-abra='' data-bonemine='2' data-assur='3'&gt;Charlie et la chocolaterie&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='4' data-obelix='' data-idefix='' data-pano='2' data-abra='' data-bonemine='3' data-assur=''&gt;Cyrano de Bergerac&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='4' data-bonemine='' data-assur=''&gt;Octobre rouge&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='2' data-obelix='' data-idefix='' data-pano='2' data-abra='' data-bonemine='3' data-assur=''&gt;Mulan&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N48" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A48 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quelle œuvre d'art préfères-tu ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='3' data-abra='' data-bonemine='2' data-assur=''&gt;La Joconde&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='5' data-bonemine='' data-assur=''&gt;Un tableau de Napoléon sur son cheval&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='3' data-idefix='2' data-pano='' data-abra='' data-bonemine='' data-assur=''&gt;La Victoire de Samothrace&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='2' data-obelix='2' data-idefix='' data-pano='' data-abra='' data-bonemine='' data-assur=''&gt;Le Radeau de La Méduse&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='4' data-idefix='' data-pano='' data-abra='' data-bonemine='' data-assur=''&gt;La Vénus de Milo&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='' data-abra='' data-bonemine='' data-assur='4'&gt;La Nuit étoilée&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N55" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A55 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quand tu t'ennuies, tu préfères :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='1' data-obelix='' data-idefix='' data-pano='4' data-abra='' data-bonemine='1' data-assur='2'&gt;Lire&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='1' data-pano='' data-abra='' data-bonemine='' data-assur='5'&gt;Chanter&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='2' data-obelix='' data-idefix='' data-pano='3' data-abra='' data-bonemine='3' data-assur=''&gt;Cuisiner&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='3' data-pano='' data-abra='5' data-bonemine='' data-assur='1'&gt;Faire la sieste&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='2' data-obelix='5' data-idefix='3' data-pano='' data-abra='3' data-bonemine='' data-assur=''&gt;Manger&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='2' data-obelix='3' data-idefix='2' data-pano='' data-abra='1' data-bonemine='' data-assur=''&gt;Chasser&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='' data-idefix='' data-pano='2' data-abra='' data-bonemine='' data-assur='2'&gt;Te promener&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='' data-obelix='2' data-idefix='' data-pano='2' data-abra='' data-bonemine='' data-assur='3'&gt;Pratiquer des loisirs créatifs&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-asterix='4' data-obelix='' data-idefix='' data-pano='' data-abra='1' data-bonemine='' data-assur=''&gt;T'entraîner&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66">
+        <f>SUM(E2:E65)</f>
+        <v>44</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:K66" si="3">SUM(F2:F65)</f>
+        <v>64</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67">
+        <f>COUNTIF(E2:E65,"&lt;&gt;")</f>
         <v>19</v>
       </c>
-      <c r="J93" s="1">
-        <f t="shared" si="1"/>
+      <c r="F67">
+        <f t="shared" ref="F67:K67" si="4">COUNTIF(F2:F65,"&lt;&gt;")</f>
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="K93" s="1">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="L93" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="M93" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="N93" s="1">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="O93" s="1">
-        <f t="shared" si="1"/>
-        <v>14</v>
+      <c r="K67">
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/quizz/Quizz.xlsx
+++ b/quizz/Quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Desktop\quizz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4213E6F6-7B0F-4B8D-96B9-DD2F235A7E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A748A-5954-4BDC-9640-5C73EEF341B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7129196E-3C29-42F6-8149-3968117AC519}"/>
   </bookViews>
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,7 +2620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,8 +2659,8 @@
         <v>109</v>
       </c>
       <c r="N2" t="str">
-        <f>"&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; C2 &amp; "&lt;/div&gt;"</f>
-        <v>&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;&lt;/div&gt;</v>
+        <f>"&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A2 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton plat préféré ?&lt;/div&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">

--- a/quizz/Quizz.xlsx
+++ b/quizz/Quizz.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Desktop\quizz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663A748A-5954-4BDC-9640-5C73EEF341B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E395D6B1-1B05-4DC5-B4E6-9A8F4ABF516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7129196E-3C29-42F6-8149-3968117AC519}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7129196E-3C29-42F6-8149-3968117AC519}"/>
   </bookViews>
   <sheets>
     <sheet name="5ième Elément" sheetId="1" r:id="rId1"/>
     <sheet name="Astérix" sheetId="2" r:id="rId2"/>
+    <sheet name="Totally Spies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="237">
   <si>
     <t>Train électrique</t>
   </si>
@@ -539,6 +540,204 @@
   </si>
   <si>
     <t>T'entraîner</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Clover</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Mandy</t>
+  </si>
+  <si>
+    <t>Après une journée de travail, tu :</t>
+  </si>
+  <si>
+    <t>vas faire du shopping</t>
+  </si>
+  <si>
+    <t>travailles encore un peu</t>
+  </si>
+  <si>
+    <t>vas t'entraîner</t>
+  </si>
+  <si>
+    <t>fais un tour dans ta voiture neuve</t>
+  </si>
+  <si>
+    <t>La bibliothèque c'est chouette parce que :</t>
+  </si>
+  <si>
+    <t>Il y a plein de livre</t>
+  </si>
+  <si>
+    <t>On peut draguer les garçons tranquillement</t>
+  </si>
+  <si>
+    <t>Rouge</t>
+  </si>
+  <si>
+    <t>Jaune</t>
+  </si>
+  <si>
+    <t>Vert</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Quel cours préfères-tu ?</t>
+  </si>
+  <si>
+    <t>Chimie</t>
+  </si>
+  <si>
+    <t>Design et mode</t>
+  </si>
+  <si>
+    <t>Informatique</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Ce dont tu as le plus peur :</t>
+  </si>
+  <si>
+    <t>Ne pas avoir la dernière tenue à la mode</t>
+  </si>
+  <si>
+    <t>Être viré du Woohp</t>
+  </si>
+  <si>
+    <t>Il y a un système de woohping pré-installé</t>
+  </si>
+  <si>
+    <t>Les araignées</t>
+  </si>
+  <si>
+    <t>Se faire gronder par sa mère</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>Grenouille</t>
+  </si>
+  <si>
+    <t>Quel est ton mode de transport préféré ?</t>
+  </si>
+  <si>
+    <t>Avion</t>
+  </si>
+  <si>
+    <t>Vélo</t>
+  </si>
+  <si>
+    <t>Roller</t>
+  </si>
+  <si>
+    <t>Voiture de sport</t>
+  </si>
+  <si>
+    <t>Rôti à la menthe</t>
+  </si>
+  <si>
+    <t>Des sushis</t>
+  </si>
+  <si>
+    <t>Une petite salade verte, avec la sauce à côté</t>
+  </si>
+  <si>
+    <t>Quel est ton lieu de vacances idéales ?</t>
+  </si>
+  <si>
+    <t>Une plage paradisiaque</t>
+  </si>
+  <si>
+    <t>La haute montagne</t>
+  </si>
+  <si>
+    <t>Un vieux manoir hanté</t>
+  </si>
+  <si>
+    <t>Une fête géante à Ibiza</t>
+  </si>
+  <si>
+    <t>Un cratère de volcan en activité</t>
+  </si>
+  <si>
+    <t>Un musée</t>
+  </si>
+  <si>
+    <t>Quel est ton personnage d'Harry Potter préféré ?</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Drago Malfoy</t>
+  </si>
+  <si>
+    <t>Viktor Krum</t>
+  </si>
+  <si>
+    <t>Leia</t>
+  </si>
+  <si>
+    <t>Quel est ton personnage de Star Wars préféré ?</t>
+  </si>
+  <si>
+    <t>Han Solo</t>
+  </si>
+  <si>
+    <t>Yoda</t>
+  </si>
+  <si>
+    <t>Padmé Amidala</t>
+  </si>
+  <si>
+    <t>Anakin</t>
+  </si>
+  <si>
+    <t>Quelle est ta pâtisserie préférée ?</t>
+  </si>
+  <si>
+    <t>Les éclairs au chocolat</t>
+  </si>
+  <si>
+    <t>Le pudding</t>
+  </si>
+  <si>
+    <t>Les pains au chocolat</t>
+  </si>
+  <si>
+    <t>Croissants</t>
+  </si>
+  <si>
+    <t>Quel est ton parfum de glace préféré ?</t>
+  </si>
+  <si>
+    <t>Fruit de la passion</t>
+  </si>
+  <si>
+    <t>Pomme</t>
+  </si>
+  <si>
+    <t>Noix de coco</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EC213D-D107-46C8-968C-B9C371BEBFD3}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
@@ -3686,4 +3885,1001 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862C6EDE-E7E8-4BA9-98FC-95D5F73DAC32}">
+  <dimension ref="A1:L71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" t="str">
+        <f>"&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A2 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Après une journée de travail, tu :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='" &amp; E3 &amp; "' data-clover='" &amp; F3 &amp; "' data-alex='" &amp; G3 &amp; "' data-jerry='" &amp; H3 &amp; "' data-mandy='" &amp; I3 &amp; "'&gt;" &amp; B3 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='5' data-alex='' data-jerry='' data-mandy='3'&gt;vas faire du shopping&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L68" si="0">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='" &amp; E4 &amp; "' data-clover='" &amp; F4 &amp; "' data-alex='" &amp; G4 &amp; "' data-jerry='" &amp; H4 &amp; "' data-mandy='" &amp; I4 &amp; "'&gt;" &amp; B4 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='5' data-clover='' data-alex='' data-jerry='4' data-mandy=''&gt;travailles encore un peu&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='5' data-jerry='' data-mandy=''&gt;vas t'entraîner&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='' data-mandy='3'&gt;fais un tour dans ta voiture neuve&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A7 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;La bibliothèque c'est chouette parce que :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='4' data-clover='' data-alex='2' data-jerry='' data-mandy=''&gt;Il y a plein de livre&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='1' data-clover='5' data-alex='2' data-jerry='' data-mandy='5'&gt;On peut draguer les garçons tranquillement&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='5' data-mandy=''&gt;Il y a un système de woohping pré-installé&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A11 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quelle est ta couleur préférée ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='5' data-alex='' data-jerry='' data-mandy=''&gt;Rouge&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='5' data-jerry='' data-mandy=''&gt;Jaune&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='4' data-clover='' data-alex='' data-jerry='' data-mandy=''&gt;Vert&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='4' data-mandy=''&gt;Noir&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='' data-mandy='3'&gt;Violet&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A17 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel cours préfères-tu ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='5' data-clover='' data-alex='2' data-jerry='' data-mandy=''&gt;Chimie&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='5' data-alex='1' data-jerry='' data-mandy='5'&gt;Design et mode&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='4' data-clover='' data-alex='' data-jerry='5' data-mandy=''&gt;Informatique&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='3' data-clover='2' data-alex='5' data-jerry='' data-mandy=''&gt;Sport&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A22 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Ce dont tu as le plus peur :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='4' data-alex='2' data-jerry='' data-mandy='5'&gt;Ne pas avoir la dernière tenue à la mode&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='5' data-clover='3' data-alex='4' data-jerry='5' data-mandy=''&gt;Être viré du Woohp&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='3' data-alex='' data-jerry='' data-mandy='5'&gt;Les araignées&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='4' data-mandy='5'&gt;Se faire gronder par sa mère&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A27 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton animal préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='5' data-jerry='1' data-mandy='2'&gt;Chat&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='3' data-clover='4' data-alex='' data-jerry='' data-mandy=''&gt;Chien&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='4' data-clover='' data-alex='' data-jerry='' data-mandy=''&gt;Grenouille&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="L31" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A31 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton mode de transport préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='3' data-alex='' data-jerry='3' data-mandy=''&gt;Avion&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='3' data-clover='' data-alex='4' data-jerry='' data-mandy=''&gt;Vélo&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='4' data-mandy='5'&gt;Voiture de sport&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='2' data-clover='4' data-alex='5' data-jerry='' data-mandy=''&gt;Roller&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L36" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A36 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton plat préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='5' data-mandy=''&gt;Rôti à la menthe&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='3' data-clover='3' data-alex='5' data-jerry='' data-mandy='2'&gt;Des sushis&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='4' data-clover='' data-alex='3' data-jerry='' data-mandy=''&gt;Une petite salade verte, avec la sauce à côté&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="L40" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A40 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton lieu de vacances idéales ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='5' data-jerry='' data-mandy=''&gt;La haute montagne&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='2' data-clover='4' data-alex='4' data-jerry='' data-mandy='5'&gt;Une plage paradisiaque&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='2' data-clover='' data-alex='' data-jerry='5' data-mandy=''&gt;Un vieux manoir hanté&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='5' data-alex='' data-jerry='5' data-mandy='5'&gt;Une fête géante à Ibiza&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='3' data-clover='' data-alex='3' data-jerry='1' data-mandy=''&gt;Un cratère de volcan en activité&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='5' data-clover='' data-alex='' data-jerry='' data-mandy=''&gt;Un musée&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L47" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A47 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton personnage d'Harry Potter préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='3' data-jerry='' data-mandy=''&gt;Harry Potter&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='5' data-clover='' data-alex='' data-jerry='' data-mandy=''&gt;Hermione Granger&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>219</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='4' data-mandy=''&gt;Albus Dumbledore&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='3' data-alex='' data-jerry='' data-mandy=''&gt;Viktor Krum&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='' data-mandy='4'&gt;Drago Malfoy&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L53" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A53 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton personnage de Star Wars préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>222</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='4' data-alex='' data-jerry='2' data-mandy=''&gt;Leia&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='' data-mandy='5'&gt;Padmé Amidala&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='2' data-clover='' data-alex='' data-jerry='4' data-mandy=''&gt;Han Solo&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>4</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='3' data-clover='' data-alex='4' data-jerry='4' data-mandy=''&gt;Yoda&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>227</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='' data-mandy='3'&gt;Anakin&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L59" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A59 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quelle est ta pâtisserie préférée ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='2' data-alex='4' data-jerry='' data-mandy=''&gt;Les éclairs au chocolat&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='5' data-mandy=''&gt;Le pudding&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='4' data-alex='' data-jerry='' data-mandy=''&gt;Les pains au chocolat&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>232</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='' data-mandy='3'&gt;Croissants&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="L64" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A64 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton parfum de glace préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='3' data-clover='' data-alex='2' data-jerry='' data-mandy=''&gt;Orange&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>234</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='3' data-jerry='' data-mandy='2'&gt;Fruit de la passion&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>235</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='3' data-alex='' data-jerry='' data-mandy=''&gt;Pomme&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='' data-clover='' data-alex='' data-jerry='3' data-mandy=''&gt;Noix de coco&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70">
+        <f>SUM(E2:E69)</f>
+        <v>75</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ref="F70:I70" si="1">SUM(F2:F69)</f>
+        <v>71</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71">
+        <f>COUNTIF(E2:E69,"&lt;&gt;")</f>
+        <v>22</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:I71" si="2">COUNTIF(F2:F69,"&lt;&gt;")</f>
+        <v>19</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/quizz/Quizz.xlsx
+++ b/quizz/Quizz.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Desktop\quizz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E395D6B1-1B05-4DC5-B4E6-9A8F4ABF516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8837C8C-E8C9-4D8A-B1A9-90B3CB3DDFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7129196E-3C29-42F6-8149-3968117AC519}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7129196E-3C29-42F6-8149-3968117AC519}"/>
   </bookViews>
   <sheets>
     <sheet name="5ième Elément" sheetId="1" r:id="rId1"/>
     <sheet name="Astérix" sheetId="2" r:id="rId2"/>
     <sheet name="Totally Spies" sheetId="3" r:id="rId3"/>
+    <sheet name="Scientifique" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="314">
   <si>
     <t>Train électrique</t>
   </si>
@@ -614,9 +615,6 @@
     <t>Ne pas avoir la dernière tenue à la mode</t>
   </si>
   <si>
-    <t>Être viré du Woohp</t>
-  </si>
-  <si>
     <t>Il y a un système de woohping pré-installé</t>
   </si>
   <si>
@@ -738,6 +736,240 @@
   </si>
   <si>
     <t>Noix de coco</t>
+  </si>
+  <si>
+    <t>Être viré</t>
+  </si>
+  <si>
+    <t>inutile</t>
+  </si>
+  <si>
+    <t>intéressant mais pas primordial</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t>Galilée</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Edison</t>
+  </si>
+  <si>
+    <t>Albert Einstein</t>
+  </si>
+  <si>
+    <t>Evariste Galois</t>
+  </si>
+  <si>
+    <t>complètement idiot</t>
+  </si>
+  <si>
+    <t>Aider les autres, c'est :</t>
+  </si>
+  <si>
+    <t>Les sciences, ça se fait :</t>
+  </si>
+  <si>
+    <t>dans la tête</t>
+  </si>
+  <si>
+    <t>dans un labo</t>
+  </si>
+  <si>
+    <t>au calme</t>
+  </si>
+  <si>
+    <t>Les enfants c'est :</t>
+  </si>
+  <si>
+    <t>chouette</t>
+  </si>
+  <si>
+    <t>une nuisance</t>
+  </si>
+  <si>
+    <t>tout seul</t>
+  </si>
+  <si>
+    <t>avec des employés pas trop chers</t>
+  </si>
+  <si>
+    <t>cher à entretenir</t>
+  </si>
+  <si>
+    <t>pas</t>
+  </si>
+  <si>
+    <t>Les sciences, c'est pour :</t>
+  </si>
+  <si>
+    <t>rien</t>
+  </si>
+  <si>
+    <t>plaire aux filles</t>
+  </si>
+  <si>
+    <t>gagner une guerre</t>
+  </si>
+  <si>
+    <t>faire beau</t>
+  </si>
+  <si>
+    <t>comprendre le monde</t>
+  </si>
+  <si>
+    <t>gagner de l'argent</t>
+  </si>
+  <si>
+    <t>faire travailler son cerveau</t>
+  </si>
+  <si>
+    <t>aider l'humanité</t>
+  </si>
+  <si>
+    <t>Retourne dans ton école d'arts de la rue, crétin</t>
+  </si>
+  <si>
+    <t>2001, l'Odyssé de l'Espace</t>
+  </si>
+  <si>
+    <t>Retour vers le futur</t>
+  </si>
+  <si>
+    <t>De la Terre à la Lune</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Le Loup de Wallstreet</t>
+  </si>
+  <si>
+    <t>Will Hunting</t>
+  </si>
+  <si>
+    <t>Break Street 84</t>
+  </si>
+  <si>
+    <t>Quelques graines pour oiseau, ça va très bien</t>
+  </si>
+  <si>
+    <t>Une pizza</t>
+  </si>
+  <si>
+    <t>Un rôti à la menthe</t>
+  </si>
+  <si>
+    <t>Du caviar sur lit de saumon fumé</t>
+  </si>
+  <si>
+    <t>Un bon tafelspitz</t>
+  </si>
+  <si>
+    <t>De la krakowska</t>
+  </si>
+  <si>
+    <t>Je mange très peu</t>
+  </si>
+  <si>
+    <t>Un bon banquet entre amis avec de bonnes victuailles</t>
+  </si>
+  <si>
+    <t>Un kebab</t>
+  </si>
+  <si>
+    <t>Quelle est ton activité préférée après une bonne journée de travail ?</t>
+  </si>
+  <si>
+    <t>Je vois des amis</t>
+  </si>
+  <si>
+    <t>Un peu de musique</t>
+  </si>
+  <si>
+    <t>Du sport</t>
+  </si>
+  <si>
+    <t>Ecrire</t>
+  </si>
+  <si>
+    <t>Le travail, c'est la santé : je continue à travailler toute la nuit</t>
+  </si>
+  <si>
+    <t>Je ne travaille pas ; les autres travaillent pour moi</t>
+  </si>
+  <si>
+    <t>Voyager, c'est :</t>
+  </si>
+  <si>
+    <t>Je n'ai pas le temps</t>
+  </si>
+  <si>
+    <t>une nécessité pour rencontrer d'autres scientifiques</t>
+  </si>
+  <si>
+    <t>une nécessité pour trouver de l'argent</t>
+  </si>
+  <si>
+    <t>un plaisir</t>
+  </si>
+  <si>
+    <t>un ennui</t>
+  </si>
+  <si>
+    <t>une découverte d'autres cultures qui nous enrichissent grâce au regard de l'autre</t>
+  </si>
+  <si>
+    <t>Quel est le meilleur système politique possible ?</t>
+  </si>
+  <si>
+    <t>L'anarchie, on n'a pas besoin d'un chef intelligent</t>
+  </si>
+  <si>
+    <t>Respectons la tradition : un roi ou une reine et tout ira bien</t>
+  </si>
+  <si>
+    <t>Tant qu'on me laisse faire mon travail, faites comme vous voulez</t>
+  </si>
+  <si>
+    <t>Le peuple doit décider pour lui-même, il faut une République</t>
+  </si>
+  <si>
+    <t>Tout sauf une dictature svp</t>
+  </si>
+  <si>
+    <t>Laisson le marché décider</t>
+  </si>
+  <si>
+    <t>A l'école :</t>
+  </si>
+  <si>
+    <t>Je m'ennuie</t>
+  </si>
+  <si>
+    <t>Je trouve trop bien d'apprendre des trucs</t>
+  </si>
+  <si>
+    <t>Je suis à l'aise</t>
+  </si>
+  <si>
+    <t>Mon intelligence est reconnue</t>
+  </si>
+  <si>
+    <t>Je trouve que certains profs sont trop lents</t>
+  </si>
+  <si>
+    <t>Je suis au fond près du radiateur et je me moque des autres</t>
+  </si>
+  <si>
+    <t>Je mets en place un business de goûters</t>
   </si>
 </sst>
 </file>
@@ -3891,9 +4123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862C6EDE-E7E8-4BA9-98FC-95D5F73DAC32}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,7 +4262,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -4213,7 +4445,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -4229,12 +4461,12 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='5' data-clover='3' data-alex='4' data-jerry='5' data-mandy=''&gt;Être viré du Woohp&lt;/input&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-sam='5' data-clover='3' data-alex='4' data-jerry='5' data-mandy=''&gt;Être viré&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -4249,7 +4481,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -4291,7 +4523,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -4306,7 +4538,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E30">
         <v>4</v>
@@ -4318,7 +4550,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L31" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A31 &amp; "&lt;/div&gt;"</f>
@@ -4327,7 +4559,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -4342,7 +4574,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -4357,7 +4589,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -4372,7 +4604,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -4399,7 +4631,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -4411,7 +4643,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38">
         <v>3</v>
@@ -4432,7 +4664,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -4447,7 +4679,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L40" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A40 &amp; "&lt;/div&gt;"</f>
@@ -4456,7 +4688,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -4468,7 +4700,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -4489,7 +4721,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -4504,7 +4736,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -4522,7 +4754,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -4540,7 +4772,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -4552,7 +4784,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L47" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A47 &amp; "&lt;/div&gt;"</f>
@@ -4561,7 +4793,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4573,7 +4805,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -4585,7 +4817,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H50">
         <v>4</v>
@@ -4597,7 +4829,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -4609,7 +4841,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -4621,7 +4853,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L53" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A53 &amp; "&lt;/div&gt;"</f>
@@ -4630,7 +4862,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -4645,7 +4877,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I55">
         <v>5</v>
@@ -4657,7 +4889,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -4672,7 +4904,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E57">
         <v>3</v>
@@ -4690,7 +4922,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -4702,7 +4934,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L59" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A59 &amp; "&lt;/div&gt;"</f>
@@ -4711,7 +4943,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -4726,7 +4958,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -4738,7 +4970,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -4750,7 +4982,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -4762,7 +4994,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L64" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A64 &amp; "&lt;/div&gt;"</f>
@@ -4786,7 +5018,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -4801,7 +5033,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -4813,7 +5045,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -4876,6 +5108,1151 @@
       <c r="I71">
         <f t="shared" si="2"/>
         <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C28838F-A6B7-4AB3-91B1-3F89E2DE5AD0}">
+  <dimension ref="A1:N78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" t="str">
+        <f>"&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A2 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Aider les autres, c'est :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="str">
+        <f>"&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='" &amp; E3 &amp; "' data-galilee='" &amp; F3 &amp; "' data-marie='" &amp; G3 &amp; "' data-tesla='" &amp; H3 &amp; "' data-evariste='" &amp; I3 &amp;"' data-albert='" &amp; J3 &amp; "' data-edison='" &amp; K3 &amp; "' data-street='" &amp; L3 &amp; "'&gt;" &amp; B3 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='5' data-tesla='2' data-evariste='5' data-albert='' data-edison='' data-street=''&gt;capital&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N70" si="0">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='" &amp; E4 &amp; "' data-galilee='" &amp; F4 &amp; "' data-marie='" &amp; G4 &amp; "' data-tesla='" &amp; H4 &amp; "' data-evariste='" &amp; I4 &amp;"' data-albert='" &amp; J4 &amp; "' data-edison='" &amp; K4 &amp; "' data-street='" &amp; L4 &amp; "'&gt;" &amp; B4 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='4' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street='4'&gt;inutile&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='2' data-evariste='' data-albert='3' data-edison='' data-street=''&gt;intéressant mais pas primordial&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='3' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='2' data-edison='5' data-street=''&gt;complètement idiot&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A7 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Les sciences, ça se fait :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='4' data-galilee='' data-marie='2' data-tesla='' data-evariste='3' data-albert='5' data-edison='' data-street=''&gt;dans la tête&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='5' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;dans un labo&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='5' data-galilee='' data-marie='' data-tesla='2' data-evariste='2' data-albert='5' data-edison='' data-street=''&gt;au calme&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='5' data-galilee='' data-marie='' data-tesla='4' data-evariste='' data-albert='' data-edison='' data-street=''&gt;tout seul&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='5' data-street=''&gt;avec des employés pas trop chers&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street='4'&gt;pas&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N14" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A14 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Les enfants c'est :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='4' data-marie='3' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;chouette&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>254</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='4' data-edison='' data-street=''&gt;une nuisance&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='3' data-galilee='' data-marie='' data-tesla='3' data-evariste='' data-albert='' data-edison='' data-street=''&gt;inutile&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='4' data-street=''&gt;cher à entretenir&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N19" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A19 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Les sciences, c'est pour :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='3' data-albert='' data-edison='' data-street=''&gt;faire beau&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='4' data-galilee='5' data-marie='4' data-tesla='' data-evariste='' data-albert='4' data-edison='' data-street=''&gt;comprendre le monde&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='5' data-street=''&gt;gagner de l'argent&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>266</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;faire travailler son cerveau&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>267</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='4' data-tesla='3' data-evariste='' data-albert='3' data-edison='' data-street=''&gt;aider l'humanité&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='3' data-edison='' data-street=''&gt;gagner une guerre&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>261</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='3' data-albert='' data-edison='' data-street=''&gt;plaire aux filles&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street='5'&gt;rien&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A28 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton film préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='3' data-evariste='' data-albert='3' data-edison='' data-street=''&gt;2001, l'Odyssé de l'Espace&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='2' data-edison='' data-street=''&gt;Retour vers le futur&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='3' data-galilee='3' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;De la Terre à la Lune&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='4' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;Spiderman&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='5' data-street=''&gt;Le Loup de Wallstreet&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='4' data-albert='' data-edison='' data-street=''&gt;Will Hunting&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street='5'&gt;Break Street 84&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A36 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est ton plat préféré ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='5' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;Une pizza&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='4' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;Un rôti à la menthe&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='4' data-evariste='' data-albert='' data-edison='' data-street=''&gt;Quelques graines pour oiseau, ça va très bien&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='5' data-street=''&gt;Du caviar sur lit de saumon fumé&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>280</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='2' data-evariste='' data-albert='2' data-edison='' data-street=''&gt;Un bon tafelspitz&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='3' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;De la krakowska&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='3' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;Je mange très peu&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>283</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='4' data-albert='' data-edison='' data-street=''&gt;Un bon banquet entre amis avec de bonnes victuailles&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>284</v>
+      </c>
+      <c r="L45">
+        <v>5</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street='5'&gt;Un kebab&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N46" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A46 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quelle est ton activité préférée après une bonne journée de travail ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>290</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='4' data-galilee='4' data-marie='5' data-tesla='3' data-evariste='3' data-albert='' data-edison='' data-street=''&gt;Le travail, c'est la santé : je continue à travailler toute la nuit&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='2' data-tesla='' data-evariste='4' data-albert='4' data-edison='' data-street=''&gt;Je vois des amis&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='2' data-edison='' data-street=''&gt;Un peu de musique&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='2' data-tesla='' data-evariste='' data-albert='2' data-edison='' data-street=''&gt;Du sport&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='3' data-galilee='4' data-marie='' data-tesla='' data-evariste='4' data-albert='' data-edison='' data-street=''&gt;Ecrire&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>291</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>5</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='4' data-street='5'&gt;Je ne travaille pas ; les autres travaillent pour moi&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="N53" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A53 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Voyager, c'est :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>294</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="J54">
+        <v>4</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='4' data-tesla='' data-evariste='' data-albert='4' data-edison='' data-street=''&gt;une nécessité pour rencontrer d'autres scientifiques&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>293</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='2' data-tesla='1' data-evariste='5' data-albert='' data-edison='2' data-street=''&gt;Je n'ai pas le temps&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='4' data-marie='' data-tesla='3' data-evariste='' data-albert='' data-edison='' data-street=''&gt;une nécessité pour trouver de l'argent&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>296</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='3' data-edison='2' data-street=''&gt;un plaisir&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>297</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='2' data-galilee='' data-marie='3' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;un ennui&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='4' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;inutile&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>298</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street='5'&gt;une découverte d'autres cultures qui nous enrichissent grâce au regard de l'autre&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N61" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A61 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;Quel est le meilleur système politique possible ?&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>305</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='5' data-street=''&gt;Laisson le marché décider&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="L63">
+        <v>5</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street='5'&gt;L'anarchie, on n'a pas besoin d'un chef intelligent&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='4' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;Respectons la tradition : un roi ou une reine et tout ira bien&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>302</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <v>3</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='3' data-marie='' data-tesla='3' data-evariste='' data-albert='' data-edison='' data-street=''&gt;Tant qu'on me laisse faire mon travail, faites comme vous voulez&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>303</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='4' data-tesla='' data-evariste='5' data-albert='2' data-edison='' data-street=''&gt;Le peuple doit décider pour lui-même, il faut une République&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>304</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="N67" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='3' data-marie='2' data-tesla='' data-evariste='' data-albert='5' data-edison='' data-street=''&gt;Tout sauf une dictature svp&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="N68" t="str">
+        <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A68 &amp; "&lt;/div&gt;"</f>
+        <v>&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;A l'école :&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>307</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='1' data-albert='1' data-edison='' data-street=''&gt;Je m'ennuie&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="N70" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='4' data-galilee='' data-marie='5' data-tesla='2' data-evariste='3' data-albert='' data-edison='' data-street=''&gt;Je trouve trop bien d'apprendre des trucs&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>309</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="N71" t="str">
+        <f t="shared" ref="N71:N75" si="1">"&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='" &amp; E71 &amp; "' data-galilee='" &amp; F71 &amp; "' data-marie='" &amp; G71 &amp; "' data-tesla='" &amp; H71 &amp; "' data-evariste='" &amp; I71 &amp;"' data-albert='" &amp; J71 &amp; "' data-edison='" &amp; K71 &amp; "' data-street='" &amp; L71 &amp; "'&gt;" &amp; B71 &amp; "&lt;/input&gt;&lt;/div&gt;"</f>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='3' data-marie='5' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street=''&gt;Je suis à l'aise&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>310</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+      <c r="N72" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='4' data-galilee='' data-marie='5' data-tesla='4' data-evariste='4' data-albert='' data-edison='' data-street=''&gt;Mon intelligence est reconnue&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>311</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+      <c r="N73" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='4' data-albert='4' data-edison='' data-street=''&gt;Je trouve que certains profs sont trop lents&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>312</v>
+      </c>
+      <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="N74" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='' data-street='5'&gt;Je suis au fond près du radiateur et je me moque des autres&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>313</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="N75" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='' data-albert='' data-edison='5' data-street=''&gt;Je mets en place un business de goûters&lt;/input&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77">
+        <f>SUM(E2:E76)</f>
+        <v>56</v>
+      </c>
+      <c r="F77">
+        <f>SUM(F2:F76)</f>
+        <v>42</v>
+      </c>
+      <c r="G77">
+        <f>SUM(G2:G76)</f>
+        <v>72</v>
+      </c>
+      <c r="H77">
+        <f>SUM(H2:H76)</f>
+        <v>41</v>
+      </c>
+      <c r="I77">
+        <f>SUM(I2:I76)</f>
+        <v>57</v>
+      </c>
+      <c r="J77">
+        <f>SUM(J2:J76)</f>
+        <v>63</v>
+      </c>
+      <c r="K77">
+        <f>SUM(K2:K76)</f>
+        <v>47</v>
+      </c>
+      <c r="L77">
+        <f>SUM(L2:L76)</f>
+        <v>43</v>
+      </c>
+      <c r="N77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78">
+        <f>COUNTIF(E2:E76,"&lt;&gt;")</f>
+        <v>15</v>
+      </c>
+      <c r="F78">
+        <f>COUNTIF(F2:F76,"&lt;&gt;")</f>
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <f>COUNTIF(G2:G76,"&lt;&gt;")</f>
+        <v>20</v>
+      </c>
+      <c r="H78">
+        <f>COUNTIF(H2:H76,"&lt;&gt;")</f>
+        <v>15</v>
+      </c>
+      <c r="I78">
+        <f>COUNTIF(I2:I76,"&lt;&gt;")</f>
+        <v>16</v>
+      </c>
+      <c r="J78">
+        <f>COUNTIF(J2:J76,"&lt;&gt;")</f>
+        <v>20</v>
+      </c>
+      <c r="K78">
+        <f>COUNTIF(K2:K76,"&lt;&gt;")</f>
+        <v>11</v>
+      </c>
+      <c r="L78">
+        <f>COUNTIF(L2:L76,"&lt;&gt;")</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/quizz/Quizz.xlsx
+++ b/quizz/Quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julien\Desktop\quizz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8837C8C-E8C9-4D8A-B1A9-90B3CB3DDFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2522598C-A309-42D6-9BA8-3F0C1363B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7129196E-3C29-42F6-8149-3968117AC519}"/>
   </bookViews>
@@ -813,9 +813,6 @@
     <t>rien</t>
   </si>
   <si>
-    <t>plaire aux filles</t>
-  </si>
-  <si>
     <t>gagner une guerre</t>
   </si>
   <si>
@@ -970,6 +967,9 @@
   </si>
   <si>
     <t>Je mets en place un business de goûters</t>
+  </si>
+  <si>
+    <t>plaire aux garçons ou aux filles</t>
   </si>
 </sst>
 </file>
@@ -5121,8 +5121,8 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5158,7 +5158,7 @@
         <v>243</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -5412,7 +5412,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="0"/>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -5496,14 +5496,14 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='3' data-albert='' data-edison='' data-street=''&gt;plaire aux filles&lt;/input&gt;&lt;/div&gt;</v>
+        <v>&lt;div class='answer'&gt;&lt;input type='checkbox' data-isaac='' data-galilee='' data-marie='' data-tesla='' data-evariste='3' data-albert='' data-edison='' data-street=''&gt;plaire aux garçons ou aux filles&lt;/input&gt;&lt;/div&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5529,7 +5529,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L35">
         <v>5</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F37">
         <v>5</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E38">
         <v>4</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K40">
         <v>5</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I44">
         <v>4</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L45">
         <v>5</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N46" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A46 &amp; "&lt;/div&gt;"</f>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J49">
         <v>2</v>
@@ -5802,7 +5802,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N53" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A53 &amp; "&lt;/div&gt;"</f>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G54">
         <v>4</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L60">
         <v>5</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N61" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A61 &amp; "&lt;/div&gt;"</f>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -5985,7 +5985,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L63">
         <v>5</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F67">
         <v>3</v>
@@ -6060,7 +6060,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N68" t="str">
         <f>"&lt;/div&gt;&lt;div class='questionBlock'&gt;&lt;div class='question'&gt;" &amp; A68 &amp; "&lt;/div&gt;"</f>
@@ -6069,7 +6069,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E72">
         <v>4</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I73">
         <v>4</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L74">
         <v>5</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K75">
         <v>5</v>
@@ -6183,35 +6183,35 @@
         <v>98</v>
       </c>
       <c r="E77">
-        <f>SUM(E2:E76)</f>
+        <f t="shared" ref="E77:L77" si="2">SUM(E2:E76)</f>
         <v>56</v>
       </c>
       <c r="F77">
-        <f>SUM(F2:F76)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="G77">
-        <f>SUM(G2:G76)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="H77">
-        <f>SUM(H2:H76)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="I77">
-        <f>SUM(I2:I76)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="J77">
-        <f>SUM(J2:J76)</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="K77">
-        <f>SUM(K2:K76)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="L77">
-        <f>SUM(L2:L76)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="N77" t="s">
@@ -6223,35 +6223,35 @@
         <v>99</v>
       </c>
       <c r="E78">
-        <f>COUNTIF(E2:E76,"&lt;&gt;")</f>
+        <f t="shared" ref="E78:L78" si="3">COUNTIF(E2:E76,"&lt;&gt;")</f>
         <v>15</v>
       </c>
       <c r="F78">
-        <f>COUNTIF(F2:F76,"&lt;&gt;")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G78">
-        <f>COUNTIF(G2:G76,"&lt;&gt;")</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H78">
-        <f>COUNTIF(H2:H76,"&lt;&gt;")</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I78">
-        <f>COUNTIF(I2:I76,"&lt;&gt;")</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="J78">
-        <f>COUNTIF(J2:J76,"&lt;&gt;")</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K78">
-        <f>COUNTIF(K2:K76,"&lt;&gt;")</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="L78">
-        <f>COUNTIF(L2:L76,"&lt;&gt;")</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
